--- a/metadata/performance_indicators.xlsx
+++ b/metadata/performance_indicators.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Documents\HOLPA-main\HOLPA-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AlexThomson\Documents\holpa-r-scripts\metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F5ABD65-06F0-48C1-B84D-EDC061ABB286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4B2E454-1BDB-491F-92EE-DD11715C754B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7984A5C4-25CC-4441-B15F-CC422AB7244E}"/>
+    <workbookView xWindow="-28920" yWindow="60" windowWidth="29040" windowHeight="15720" xr2:uid="{7984A5C4-25CC-4441-B15F-CC422AB7244E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet2!$A$1:$S$312</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -3257,7 +3258,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -3486,29 +3487,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3525,9 +3505,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3877,33 +3877,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A371217-2A1F-4AE4-BE37-3F48849AA137}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:S312"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A181" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A31" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="F137" sqref="F137"/>
+      <selection pane="bottomLeft" activeCell="G52" sqref="G52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" customWidth="1"/>
-    <col min="2" max="2" width="13.44140625" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="25.21875" customWidth="1"/>
-    <col min="5" max="5" width="12.77734375" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="17.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.44140625" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.42578125" customWidth="1"/>
+    <col min="9" max="9" width="17.85546875" customWidth="1"/>
     <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" customWidth="1"/>
-    <col min="12" max="12" width="23.88671875" customWidth="1"/>
-    <col min="13" max="13" width="10.44140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" customWidth="1"/>
+    <col min="12" max="12" width="23.85546875" customWidth="1"/>
+    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="0" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="12.44140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -3965,7 +3964,7 @@
         <v>764</v>
       </c>
     </row>
-    <row r="2" spans="1:19" hidden="1">
+    <row r="2" spans="1:19">
       <c r="A2" s="48" t="s">
         <v>11</v>
       </c>
@@ -4016,7 +4015,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:19" hidden="1">
+    <row r="3" spans="1:19">
       <c r="A3" s="48" t="s">
         <v>11</v>
       </c>
@@ -4067,7 +4066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:19" hidden="1">
+    <row r="4" spans="1:19">
       <c r="A4" s="48" t="s">
         <v>11</v>
       </c>
@@ -4106,7 +4105,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:19" hidden="1">
+    <row r="5" spans="1:19">
       <c r="A5" s="48" t="s">
         <v>11</v>
       </c>
@@ -4159,7 +4158,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:19" hidden="1">
+    <row r="6" spans="1:19">
       <c r="A6" s="48" t="s">
         <v>11</v>
       </c>
@@ -4212,7 +4211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:19" hidden="1">
+    <row r="7" spans="1:19">
       <c r="A7" s="48" t="s">
         <v>11</v>
       </c>
@@ -4265,7 +4264,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:19" hidden="1">
+    <row r="8" spans="1:19">
       <c r="A8" s="48" t="s">
         <v>11</v>
       </c>
@@ -4318,7 +4317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:19" hidden="1">
+    <row r="9" spans="1:19">
       <c r="A9" s="48" t="s">
         <v>11</v>
       </c>
@@ -4371,7 +4370,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="10" spans="1:19" hidden="1">
+    <row r="10" spans="1:19">
       <c r="A10" s="48" t="s">
         <v>11</v>
       </c>
@@ -4424,7 +4423,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:19" hidden="1">
+    <row r="11" spans="1:19">
       <c r="A11" s="48" t="s">
         <v>11</v>
       </c>
@@ -4477,7 +4476,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:19" hidden="1">
+    <row r="12" spans="1:19">
       <c r="A12" s="48" t="s">
         <v>11</v>
       </c>
@@ -4530,7 +4529,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:19" hidden="1">
+    <row r="13" spans="1:19">
       <c r="A13" s="48" t="s">
         <v>11</v>
       </c>
@@ -4565,7 +4564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="1:19" hidden="1">
+    <row r="14" spans="1:19">
       <c r="A14" s="48" t="s">
         <v>11</v>
       </c>
@@ -4600,7 +4599,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1">
+    <row r="15" spans="1:19">
       <c r="A15" s="48" t="s">
         <v>11</v>
       </c>
@@ -4616,13 +4615,13 @@
       <c r="E15" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F15" s="91" t="s">
+      <c r="F15" s="96" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="92" t="s">
+      <c r="G15" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="H15" s="92" t="s">
+      <c r="H15" s="97" t="s">
         <v>17</v>
       </c>
       <c r="I15" s="6"/>
@@ -4639,7 +4638,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1">
+    <row r="16" spans="1:19">
       <c r="A16" s="48" t="s">
         <v>11</v>
       </c>
@@ -4653,9 +4652,9 @@
       <c r="E16" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="F16" s="91"/>
-      <c r="G16" s="92"/>
-      <c r="H16" s="92"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="97"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="6"/>
       <c r="J16" s="6"/>
       <c r="K16" s="6"/>
@@ -4670,7 +4669,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1">
+    <row r="17" spans="1:19">
       <c r="A17" s="48" t="s">
         <v>11</v>
       </c>
@@ -4723,7 +4722,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:19" hidden="1">
+    <row r="18" spans="1:19">
       <c r="A18" s="48" t="s">
         <v>11</v>
       </c>
@@ -4776,7 +4775,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:19" hidden="1">
+    <row r="19" spans="1:19">
       <c r="A19" s="48" t="s">
         <v>11</v>
       </c>
@@ -4829,7 +4828,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:19" hidden="1">
+    <row r="20" spans="1:19">
       <c r="A20" s="48" t="s">
         <v>11</v>
       </c>
@@ -4882,7 +4881,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:19" hidden="1">
+    <row r="21" spans="1:19">
       <c r="A21" s="48" t="s">
         <v>11</v>
       </c>
@@ -4935,7 +4934,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:19" hidden="1">
+    <row r="22" spans="1:19">
       <c r="A22" s="48" t="s">
         <v>11</v>
       </c>
@@ -4988,7 +4987,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:19" hidden="1">
+    <row r="23" spans="1:19">
       <c r="A23" s="48" t="s">
         <v>11</v>
       </c>
@@ -5041,7 +5040,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="24" spans="1:19" hidden="1">
+    <row r="24" spans="1:19">
       <c r="A24" s="48" t="s">
         <v>11</v>
       </c>
@@ -5080,7 +5079,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:19" hidden="1">
+    <row r="25" spans="1:19" ht="15.75" thickBot="1">
       <c r="A25" s="48" t="s">
         <v>11</v>
       </c>
@@ -5126,11 +5125,11 @@
       <c r="Q25" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="S25" s="103" t="s">
+      <c r="S25" t="s">
         <v>940</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1">
       <c r="A26" s="49" t="s">
         <v>80</v>
       </c>
@@ -5183,7 +5182,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="27" spans="1:19" ht="15.75" thickBot="1">
       <c r="A27" s="49" t="s">
         <v>80</v>
       </c>
@@ -5236,7 +5235,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1">
       <c r="A28" s="49" t="s">
         <v>80</v>
       </c>
@@ -5290,7 +5289,7 @@
       </c>
       <c r="R28" s="64"/>
     </row>
-    <row r="29" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1">
       <c r="A29" s="49" t="s">
         <v>80</v>
       </c>
@@ -5343,7 +5342,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="30" spans="1:19" ht="15.75" thickBot="1">
       <c r="A30" s="49" t="s">
         <v>80</v>
       </c>
@@ -5396,7 +5395,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1">
       <c r="A31" s="49" t="s">
         <v>80</v>
       </c>
@@ -5449,7 +5448,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1">
       <c r="A32" s="49" t="s">
         <v>80</v>
       </c>
@@ -5502,7 +5501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="33" spans="1:17" ht="15.75" thickBot="1">
       <c r="A33" s="49" t="s">
         <v>80</v>
       </c>
@@ -5555,7 +5554,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="34" spans="1:17" ht="15.75" thickBot="1">
       <c r="A34" s="49" t="s">
         <v>80</v>
       </c>
@@ -5608,7 +5607,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="35" spans="1:17" ht="15.75" thickBot="1">
       <c r="A35" s="49" t="s">
         <v>80</v>
       </c>
@@ -5661,7 +5660,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="36" spans="1:17" ht="15.75" thickBot="1">
       <c r="A36" s="49" t="s">
         <v>80</v>
       </c>
@@ -5714,7 +5713,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="37" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="37" spans="1:17" ht="15.75" thickBot="1">
       <c r="A37" s="49" t="s">
         <v>80</v>
       </c>
@@ -5767,7 +5766,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="38" spans="1:17" ht="15.75" thickBot="1">
       <c r="A38" s="49" t="s">
         <v>80</v>
       </c>
@@ -5820,7 +5819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="39" spans="1:17" ht="15.75" thickBot="1">
       <c r="A39" s="49" t="s">
         <v>80</v>
       </c>
@@ -5873,7 +5872,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="40" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="40" spans="1:17" ht="15.75" thickBot="1">
       <c r="A40" s="49" t="s">
         <v>80</v>
       </c>
@@ -5926,7 +5925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="41" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="41" spans="1:17" ht="15.75" thickBot="1">
       <c r="A41" s="49" t="s">
         <v>80</v>
       </c>
@@ -5979,7 +5978,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="42" spans="1:17" ht="15.75" thickBot="1">
       <c r="A42" s="49" t="s">
         <v>80</v>
       </c>
@@ -6032,7 +6031,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="43" spans="1:17" ht="15.75" thickBot="1">
       <c r="A43" s="49" t="s">
         <v>80</v>
       </c>
@@ -6085,7 +6084,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="44" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="44" spans="1:17" ht="15.75" thickBot="1">
       <c r="A44" s="49" t="s">
         <v>80</v>
       </c>
@@ -6138,7 +6137,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="45" spans="1:17" ht="15.75" thickBot="1">
       <c r="A45" s="49" t="s">
         <v>80</v>
       </c>
@@ -6191,7 +6190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="46" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="46" spans="1:17" ht="15.75" thickBot="1">
       <c r="A46" s="49" t="s">
         <v>80</v>
       </c>
@@ -6244,7 +6243,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="47" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="47" spans="1:17" ht="15.75" thickBot="1">
       <c r="A47" s="49" t="s">
         <v>80</v>
       </c>
@@ -6297,7 +6296,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="48" spans="1:17" ht="15.75" thickBot="1">
       <c r="A48" s="49" t="s">
         <v>80</v>
       </c>
@@ -6350,7 +6349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="49" spans="1:18" ht="15" hidden="1" thickBot="1">
+    <row r="49" spans="1:18" ht="15.75" thickBot="1">
       <c r="A49" s="49" t="s">
         <v>80</v>
       </c>
@@ -6403,7 +6402,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="50" spans="1:18" hidden="1">
+    <row r="50" spans="1:18">
       <c r="A50" s="49" t="s">
         <v>80</v>
       </c>
@@ -6438,7 +6437,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:18" hidden="1">
+    <row r="51" spans="1:18">
       <c r="A51" s="49" t="s">
         <v>80</v>
       </c>
@@ -6473,7 +6472,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:18" hidden="1">
+    <row r="52" spans="1:18">
       <c r="A52" s="49" t="s">
         <v>80</v>
       </c>
@@ -6514,7 +6513,7 @@
         <v>15</v>
       </c>
       <c r="N52" s="6"/>
-      <c r="O52" s="90" t="s">
+      <c r="O52" s="98" t="s">
         <v>79</v>
       </c>
       <c r="P52" s="6"/>
@@ -6525,7 +6524,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="53" spans="1:18" hidden="1">
+    <row r="53" spans="1:18">
       <c r="A53" s="49" t="s">
         <v>80</v>
       </c>
@@ -6566,7 +6565,7 @@
         <v>15</v>
       </c>
       <c r="N53" s="5"/>
-      <c r="O53" s="90" t="s">
+      <c r="O53" s="98" t="s">
         <v>79</v>
       </c>
       <c r="P53" s="6"/>
@@ -6577,7 +6576,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="54" spans="1:18" hidden="1">
+    <row r="54" spans="1:18">
       <c r="A54" s="49" t="s">
         <v>80</v>
       </c>
@@ -6618,7 +6617,7 @@
         <v>15</v>
       </c>
       <c r="N54" s="41"/>
-      <c r="O54" s="90" t="s">
+      <c r="O54" s="98" t="s">
         <v>79</v>
       </c>
       <c r="P54" s="6"/>
@@ -6626,14 +6625,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="1:18" hidden="1">
+    <row r="55" spans="1:18">
       <c r="A55" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C55" s="90">
+      <c r="C55" s="98">
         <v>6.4</v>
       </c>
       <c r="D55" s="41" t="s">
@@ -6679,14 +6678,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="56" spans="1:18" hidden="1">
+    <row r="56" spans="1:18">
       <c r="A56" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C56" s="90"/>
+      <c r="C56" s="98"/>
       <c r="D56" s="41" t="s">
         <v>129</v>
       </c>
@@ -6730,14 +6729,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:18" hidden="1">
+    <row r="57" spans="1:18">
       <c r="A57" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C57" s="90"/>
+      <c r="C57" s="98"/>
       <c r="D57" s="41" t="s">
         <v>129</v>
       </c>
@@ -6781,14 +6780,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="58" spans="1:18" hidden="1">
+    <row r="58" spans="1:18">
       <c r="A58" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C58" s="90"/>
+      <c r="C58" s="98"/>
       <c r="D58" s="41" t="s">
         <v>129</v>
       </c>
@@ -6832,14 +6831,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="59" spans="1:18" hidden="1">
+    <row r="59" spans="1:18">
       <c r="A59" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C59" s="90"/>
+      <c r="C59" s="98"/>
       <c r="D59" s="41" t="s">
         <v>129</v>
       </c>
@@ -6883,14 +6882,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="60" spans="1:18" hidden="1">
+    <row r="60" spans="1:18">
       <c r="A60" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B60" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C60" s="90">
+      <c r="C60" s="98">
         <v>6.5</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -6936,14 +6935,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="61" spans="1:18" hidden="1">
+    <row r="61" spans="1:18">
       <c r="A61" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B61" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C61" s="90"/>
+      <c r="C61" s="98"/>
       <c r="D61" s="2" t="s">
         <v>139</v>
       </c>
@@ -6987,14 +6986,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:18" hidden="1">
+    <row r="62" spans="1:18">
       <c r="A62" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B62" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C62" s="90"/>
+      <c r="C62" s="98"/>
       <c r="D62" s="2" t="s">
         <v>139</v>
       </c>
@@ -7038,14 +7037,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:18" hidden="1">
+    <row r="63" spans="1:18">
       <c r="A63" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B63" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C63" s="90"/>
+      <c r="C63" s="98"/>
       <c r="D63" s="2" t="s">
         <v>139</v>
       </c>
@@ -7089,14 +7088,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="64" spans="1:18" hidden="1">
+    <row r="64" spans="1:18">
       <c r="A64" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B64" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C64" s="90"/>
+      <c r="C64" s="98"/>
       <c r="D64" s="2" t="s">
         <v>139</v>
       </c>
@@ -7140,14 +7139,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="65" spans="1:18" hidden="1">
+    <row r="65" spans="1:18">
       <c r="A65" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B65" s="55" t="s">
         <v>128</v>
       </c>
-      <c r="C65" s="90"/>
+      <c r="C65" s="98"/>
       <c r="D65" s="2" t="s">
         <v>139</v>
       </c>
@@ -7191,7 +7190,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="66" spans="1:18" hidden="1">
+    <row r="66" spans="1:18">
       <c r="A66" s="49" t="s">
         <v>80</v>
       </c>
@@ -7224,7 +7223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="1:18" ht="138" hidden="1">
+    <row r="67" spans="1:18" ht="135">
       <c r="A67" s="49" t="s">
         <v>80</v>
       </c>
@@ -7269,7 +7268,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:18" ht="96.6" hidden="1">
+    <row r="68" spans="1:18" ht="94.5">
       <c r="A68" s="49" t="s">
         <v>80</v>
       </c>
@@ -7318,7 +7317,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="69" spans="1:18" ht="96.6" hidden="1">
+    <row r="69" spans="1:18" ht="94.5">
       <c r="A69" s="49" t="s">
         <v>80</v>
       </c>
@@ -7367,7 +7366,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="70" spans="1:18" ht="96.6" hidden="1">
+    <row r="70" spans="1:18" ht="94.5">
       <c r="A70" s="49" t="s">
         <v>80</v>
       </c>
@@ -7416,7 +7415,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="71" spans="1:18" ht="96.6" hidden="1">
+    <row r="71" spans="1:18" ht="94.5">
       <c r="A71" s="49" t="s">
         <v>80</v>
       </c>
@@ -7465,7 +7464,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="72" spans="1:18" ht="96.6" hidden="1">
+    <row r="72" spans="1:18" ht="94.5">
       <c r="A72" s="49" t="s">
         <v>80</v>
       </c>
@@ -7502,7 +7501,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="73" spans="1:18" hidden="1">
+    <row r="73" spans="1:18">
       <c r="A73" s="49" t="s">
         <v>80</v>
       </c>
@@ -7533,7 +7532,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="74" spans="1:18" hidden="1">
+    <row r="74" spans="1:18">
       <c r="A74" s="49" t="s">
         <v>80</v>
       </c>
@@ -7575,7 +7574,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="75" spans="1:18" hidden="1">
+    <row r="75" spans="1:18">
       <c r="A75" s="49" t="s">
         <v>80</v>
       </c>
@@ -7612,7 +7611,7 @@
       <c r="L75" s="6"/>
       <c r="M75" s="6"/>
       <c r="N75" s="6"/>
-      <c r="O75" s="90" t="s">
+      <c r="O75" s="98" t="s">
         <v>167</v>
       </c>
       <c r="P75" s="6"/>
@@ -7620,7 +7619,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="76" spans="1:18" hidden="1">
+    <row r="76" spans="1:18">
       <c r="A76" s="49" t="s">
         <v>80</v>
       </c>
@@ -7657,13 +7656,13 @@
       <c r="L76" s="6"/>
       <c r="M76" s="6"/>
       <c r="N76" s="6"/>
-      <c r="O76" s="90"/>
+      <c r="O76" s="98"/>
       <c r="P76" s="6"/>
       <c r="Q76" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="77" spans="1:18" hidden="1">
+    <row r="77" spans="1:18">
       <c r="A77" s="49" t="s">
         <v>80</v>
       </c>
@@ -7700,13 +7699,13 @@
       <c r="L77" s="6"/>
       <c r="M77" s="6"/>
       <c r="N77" s="6"/>
-      <c r="O77" s="90"/>
+      <c r="O77" s="98"/>
       <c r="P77" s="6"/>
       <c r="Q77" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:18" hidden="1">
+    <row r="78" spans="1:18">
       <c r="A78" s="49" t="s">
         <v>80</v>
       </c>
@@ -7743,13 +7742,13 @@
       <c r="L78" s="6"/>
       <c r="M78" s="6"/>
       <c r="N78" s="6"/>
-      <c r="O78" s="90"/>
+      <c r="O78" s="98"/>
       <c r="P78" s="6"/>
       <c r="Q78" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="79" spans="1:18" hidden="1">
+    <row r="79" spans="1:18">
       <c r="A79" s="49" t="s">
         <v>80</v>
       </c>
@@ -7786,13 +7785,13 @@
       <c r="L79" s="6"/>
       <c r="M79" s="6"/>
       <c r="N79" s="6"/>
-      <c r="O79" s="90"/>
+      <c r="O79" s="98"/>
       <c r="P79" s="6"/>
       <c r="Q79" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="80" spans="1:18" hidden="1">
+    <row r="80" spans="1:18">
       <c r="A80" s="49" t="s">
         <v>80</v>
       </c>
@@ -7829,13 +7828,13 @@
       <c r="L80" s="6"/>
       <c r="M80" s="6"/>
       <c r="N80" s="6"/>
-      <c r="O80" s="90"/>
+      <c r="O80" s="98"/>
       <c r="P80" s="6"/>
       <c r="Q80" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="81" spans="1:17" hidden="1">
+    <row r="81" spans="1:17">
       <c r="A81" s="49" t="s">
         <v>80</v>
       </c>
@@ -7872,13 +7871,13 @@
       <c r="L81" s="6"/>
       <c r="M81" s="6"/>
       <c r="N81" s="6"/>
-      <c r="O81" s="90"/>
+      <c r="O81" s="98"/>
       <c r="P81" s="6"/>
       <c r="Q81" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="82" spans="1:17" hidden="1">
+    <row r="82" spans="1:17">
       <c r="A82" s="49" t="s">
         <v>80</v>
       </c>
@@ -7915,13 +7914,13 @@
       <c r="L82" s="6"/>
       <c r="M82" s="6"/>
       <c r="N82" s="6"/>
-      <c r="O82" s="90"/>
+      <c r="O82" s="98"/>
       <c r="P82" s="6"/>
       <c r="Q82" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:17" hidden="1">
+    <row r="83" spans="1:17">
       <c r="A83" s="49" t="s">
         <v>80</v>
       </c>
@@ -7958,13 +7957,13 @@
       <c r="L83" s="6"/>
       <c r="M83" s="6"/>
       <c r="N83" s="6"/>
-      <c r="O83" s="90"/>
+      <c r="O83" s="98"/>
       <c r="P83" s="6"/>
       <c r="Q83" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="84" spans="1:17" hidden="1">
+    <row r="84" spans="1:17">
       <c r="A84" s="49" t="s">
         <v>80</v>
       </c>
@@ -8001,13 +8000,13 @@
       <c r="L84" s="6"/>
       <c r="M84" s="6"/>
       <c r="N84" s="6"/>
-      <c r="O84" s="90"/>
+      <c r="O84" s="98"/>
       <c r="P84" s="6"/>
       <c r="Q84" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:17" hidden="1">
+    <row r="85" spans="1:17">
       <c r="A85" s="49" t="s">
         <v>80</v>
       </c>
@@ -8044,13 +8043,13 @@
       <c r="L85" s="6"/>
       <c r="M85" s="6"/>
       <c r="N85" s="6"/>
-      <c r="O85" s="90"/>
+      <c r="O85" s="98"/>
       <c r="P85" s="6"/>
       <c r="Q85" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="86" spans="1:17" hidden="1">
+    <row r="86" spans="1:17">
       <c r="A86" s="49" t="s">
         <v>80</v>
       </c>
@@ -8087,13 +8086,13 @@
       <c r="L86" s="6"/>
       <c r="M86" s="6"/>
       <c r="N86" s="6"/>
-      <c r="O86" s="90"/>
+      <c r="O86" s="98"/>
       <c r="P86" s="6"/>
       <c r="Q86" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:17" hidden="1">
+    <row r="87" spans="1:17">
       <c r="A87" s="49" t="s">
         <v>80</v>
       </c>
@@ -8130,13 +8129,13 @@
       <c r="L87" s="6"/>
       <c r="M87" s="6"/>
       <c r="N87" s="6"/>
-      <c r="O87" s="90"/>
+      <c r="O87" s="98"/>
       <c r="P87" s="6"/>
       <c r="Q87" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="88" spans="1:17" ht="234.6" hidden="1">
+    <row r="88" spans="1:17" ht="229.5">
       <c r="A88" s="49" t="s">
         <v>80</v>
       </c>
@@ -8167,7 +8166,7 @@
       <c r="P88" s="6"/>
       <c r="Q88" s="6"/>
     </row>
-    <row r="89" spans="1:17" hidden="1">
+    <row r="89" spans="1:17">
       <c r="A89" s="49" t="s">
         <v>80</v>
       </c>
@@ -8206,7 +8205,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:17" hidden="1">
+    <row r="90" spans="1:17">
       <c r="A90" s="49" t="s">
         <v>80</v>
       </c>
@@ -8237,7 +8236,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="91" spans="1:17" hidden="1">
+    <row r="91" spans="1:17">
       <c r="A91" s="49" t="s">
         <v>80</v>
       </c>
@@ -8266,7 +8265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:17" hidden="1">
+    <row r="92" spans="1:17" ht="15.75" thickBot="1">
       <c r="A92" s="49" t="s">
         <v>80</v>
       </c>
@@ -8295,19 +8294,19 @@
         <v>18</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="93" spans="1:17" ht="15.75" thickBot="1">
       <c r="A93" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B93" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="C93" s="90"/>
-      <c r="D93" s="92"/>
-      <c r="E93" s="92"/>
-      <c r="F93" s="92"/>
-      <c r="G93" s="92"/>
-      <c r="H93" s="92"/>
+      <c r="C93" s="98"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="97"/>
+      <c r="F93" s="97"/>
+      <c r="G93" s="97"/>
+      <c r="H93" s="97"/>
       <c r="I93" s="6" t="s">
         <v>194</v>
       </c>
@@ -8320,23 +8319,23 @@
       </c>
       <c r="M93" s="6"/>
       <c r="N93" s="6"/>
-      <c r="O93" s="90"/>
+      <c r="O93" s="98"/>
       <c r="P93" s="6"/>
       <c r="Q93" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="94" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="94" spans="1:17" ht="15.75" thickBot="1">
       <c r="A94" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B94" s="57"/>
-      <c r="C94" s="90"/>
-      <c r="D94" s="92"/>
-      <c r="E94" s="92"/>
-      <c r="F94" s="92"/>
-      <c r="G94" s="92"/>
-      <c r="H94" s="92"/>
+      <c r="C94" s="98"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="97"/>
+      <c r="F94" s="97"/>
+      <c r="G94" s="97"/>
+      <c r="H94" s="97"/>
       <c r="I94" s="6" t="s">
         <v>196</v>
       </c>
@@ -8349,23 +8348,23 @@
       </c>
       <c r="M94" s="6"/>
       <c r="N94" s="6"/>
-      <c r="O94" s="90"/>
+      <c r="O94" s="98"/>
       <c r="P94" s="6"/>
       <c r="Q94" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="95" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="95" spans="1:17" ht="15.75" thickBot="1">
       <c r="A95" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B95" s="57"/>
-      <c r="C95" s="90"/>
-      <c r="D95" s="92"/>
-      <c r="E95" s="92"/>
-      <c r="F95" s="92"/>
-      <c r="G95" s="92"/>
-      <c r="H95" s="92"/>
+      <c r="C95" s="98"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="97"/>
+      <c r="F95" s="97"/>
+      <c r="G95" s="97"/>
+      <c r="H95" s="97"/>
       <c r="I95" s="41" t="s">
         <v>198</v>
       </c>
@@ -8378,23 +8377,23 @@
       </c>
       <c r="M95" s="6"/>
       <c r="N95" s="6"/>
-      <c r="O95" s="90"/>
+      <c r="O95" s="98"/>
       <c r="P95" s="6"/>
       <c r="Q95" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="96" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="96" spans="1:17" ht="15.75" thickBot="1">
       <c r="A96" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B96" s="57"/>
-      <c r="C96" s="90"/>
-      <c r="D96" s="92"/>
-      <c r="E96" s="92"/>
-      <c r="F96" s="92"/>
-      <c r="G96" s="92"/>
-      <c r="H96" s="92"/>
+      <c r="C96" s="98"/>
+      <c r="D96" s="97"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="97"/>
+      <c r="G96" s="97"/>
+      <c r="H96" s="97"/>
       <c r="I96" s="6" t="s">
         <v>200</v>
       </c>
@@ -8407,23 +8406,23 @@
       </c>
       <c r="M96" s="6"/>
       <c r="N96" s="6"/>
-      <c r="O96" s="90"/>
+      <c r="O96" s="98"/>
       <c r="P96" s="6"/>
       <c r="Q96" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="97" spans="1:19" hidden="1">
+    <row r="97" spans="1:19" ht="15.75" thickBot="1">
       <c r="A97" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B97" s="57"/>
-      <c r="C97" s="90"/>
-      <c r="D97" s="92"/>
-      <c r="E97" s="92"/>
-      <c r="F97" s="92"/>
-      <c r="G97" s="92"/>
-      <c r="H97" s="92"/>
+      <c r="C97" s="98"/>
+      <c r="D97" s="97"/>
+      <c r="E97" s="97"/>
+      <c r="F97" s="97"/>
+      <c r="G97" s="97"/>
+      <c r="H97" s="97"/>
       <c r="I97" s="6" t="s">
         <v>202</v>
       </c>
@@ -8436,23 +8435,23 @@
       </c>
       <c r="M97" s="6"/>
       <c r="N97" s="6"/>
-      <c r="O97" s="90"/>
+      <c r="O97" s="98"/>
       <c r="P97" s="6"/>
       <c r="Q97" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="98" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="98" spans="1:19" ht="15.75" thickBot="1">
       <c r="A98" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B98" s="57"/>
-      <c r="C98" s="90"/>
-      <c r="D98" s="92"/>
-      <c r="E98" s="92"/>
-      <c r="F98" s="92"/>
-      <c r="G98" s="92"/>
-      <c r="H98" s="92"/>
+      <c r="C98" s="98"/>
+      <c r="D98" s="97"/>
+      <c r="E98" s="97"/>
+      <c r="F98" s="97"/>
+      <c r="G98" s="97"/>
+      <c r="H98" s="97"/>
       <c r="I98" s="6" t="s">
         <v>204</v>
       </c>
@@ -8465,23 +8464,23 @@
       </c>
       <c r="M98" s="6"/>
       <c r="N98" s="6"/>
-      <c r="O98" s="90"/>
+      <c r="O98" s="98"/>
       <c r="P98" s="6"/>
       <c r="Q98" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="99" spans="1:19" ht="29.4" hidden="1" thickBot="1">
+    <row r="99" spans="1:19" ht="30.75" thickBot="1">
       <c r="A99" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B99" s="57"/>
-      <c r="C99" s="90"/>
-      <c r="D99" s="92"/>
-      <c r="E99" s="92"/>
-      <c r="F99" s="92"/>
-      <c r="G99" s="92"/>
-      <c r="H99" s="92"/>
+      <c r="C99" s="98"/>
+      <c r="D99" s="97"/>
+      <c r="E99" s="97"/>
+      <c r="F99" s="97"/>
+      <c r="G99" s="97"/>
+      <c r="H99" s="97"/>
       <c r="I99" s="41" t="s">
         <v>206</v>
       </c>
@@ -8494,23 +8493,23 @@
       </c>
       <c r="M99" s="6"/>
       <c r="N99" s="6"/>
-      <c r="O99" s="90"/>
+      <c r="O99" s="98"/>
       <c r="P99" s="6"/>
       <c r="Q99" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:19" hidden="1">
+    <row r="100" spans="1:19" ht="15.75" thickBot="1">
       <c r="A100" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B100" s="57"/>
-      <c r="C100" s="90"/>
-      <c r="D100" s="92"/>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
-      <c r="G100" s="92"/>
-      <c r="H100" s="92"/>
+      <c r="C100" s="98"/>
+      <c r="D100" s="97"/>
+      <c r="E100" s="97"/>
+      <c r="F100" s="97"/>
+      <c r="G100" s="97"/>
+      <c r="H100" s="97"/>
       <c r="I100" s="6" t="s">
         <v>208</v>
       </c>
@@ -8523,13 +8522,13 @@
       </c>
       <c r="M100" s="6"/>
       <c r="N100" s="6"/>
-      <c r="O100" s="90"/>
+      <c r="O100" s="98"/>
       <c r="P100" s="6"/>
       <c r="Q100" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:19" ht="15" hidden="1" thickBot="1">
+    <row r="101" spans="1:19" ht="15.75" thickBot="1">
       <c r="A101" s="49" t="s">
         <v>80</v>
       </c>
@@ -8566,7 +8565,7 @@
         <v>766</v>
       </c>
       <c r="N101" s="12"/>
-      <c r="O101" s="93" t="s">
+      <c r="O101" s="103" t="s">
         <v>211</v>
       </c>
       <c r="P101" s="6"/>
@@ -8577,14 +8576,14 @@
         <v>767</v>
       </c>
     </row>
-    <row r="102" spans="1:19" hidden="1">
+    <row r="102" spans="1:19">
       <c r="A102" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B102" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C102" s="90">
+      <c r="C102" s="98">
         <v>10.1</v>
       </c>
       <c r="D102" s="13" t="s">
@@ -8628,14 +8627,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="103" spans="1:19" hidden="1">
+    <row r="103" spans="1:19">
       <c r="A103" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B103" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C103" s="90"/>
+      <c r="C103" s="98"/>
       <c r="D103" s="13" t="s">
         <v>217</v>
       </c>
@@ -8677,14 +8676,14 @@
         <v>18</v>
       </c>
     </row>
-    <row r="104" spans="1:19" hidden="1">
+    <row r="104" spans="1:19">
       <c r="A104" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B104" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C104" s="90"/>
+      <c r="C104" s="98"/>
       <c r="D104" s="13" t="s">
         <v>217</v>
       </c>
@@ -8724,17 +8723,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="105" spans="1:19" hidden="1">
+    <row r="105" spans="1:19">
       <c r="A105" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B105" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C105" s="90">
+      <c r="C105" s="98">
         <v>10.199999999999999</v>
       </c>
-      <c r="D105" s="91" t="s">
+      <c r="D105" s="96" t="s">
         <v>223</v>
       </c>
       <c r="E105" s="13" t="s">
@@ -8777,15 +8776,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="106" spans="1:19" hidden="1">
+    <row r="106" spans="1:19">
       <c r="A106" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B106" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C106" s="90"/>
-      <c r="D106" s="91"/>
+      <c r="C106" s="98"/>
+      <c r="D106" s="96"/>
       <c r="E106" s="13" t="s">
         <v>227</v>
       </c>
@@ -8826,15 +8825,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="107" spans="1:19" hidden="1">
+    <row r="107" spans="1:19">
       <c r="A107" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B107" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C107" s="90"/>
-      <c r="D107" s="91"/>
+      <c r="C107" s="98"/>
+      <c r="D107" s="96"/>
       <c r="E107" s="13" t="s">
         <v>228</v>
       </c>
@@ -8875,15 +8874,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="108" spans="1:19" hidden="1">
+    <row r="108" spans="1:19">
       <c r="A108" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B108" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C108" s="90"/>
-      <c r="D108" s="91"/>
+      <c r="C108" s="98"/>
+      <c r="D108" s="96"/>
       <c r="E108" s="13" t="s">
         <v>229</v>
       </c>
@@ -8924,15 +8923,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="109" spans="1:19" hidden="1">
+    <row r="109" spans="1:19">
       <c r="A109" s="49" t="s">
         <v>80</v>
       </c>
       <c r="B109" s="55" t="s">
         <v>216</v>
       </c>
-      <c r="C109" s="90"/>
-      <c r="D109" s="91"/>
+      <c r="C109" s="98"/>
+      <c r="D109" s="96"/>
       <c r="E109" s="13" t="s">
         <v>230</v>
       </c>
@@ -8973,7 +8972,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="110" spans="1:19" hidden="1">
+    <row r="110" spans="1:19">
       <c r="A110" s="49" t="s">
         <v>80</v>
       </c>
@@ -8995,7 +8994,7 @@
       <c r="I110" s="41"/>
       <c r="J110" s="6"/>
       <c r="K110" s="41"/>
-      <c r="L110" s="104"/>
+      <c r="L110" s="90"/>
       <c r="M110" s="6" t="s">
         <v>711</v>
       </c>
@@ -9004,7 +9003,7 @@
       <c r="P110" s="6"/>
       <c r="Q110" s="6"/>
     </row>
-    <row r="111" spans="1:19" hidden="1">
+    <row r="111" spans="1:19">
       <c r="A111" s="49" t="s">
         <v>232</v>
       </c>
@@ -9043,7 +9042,7 @@
         <v>766</v>
       </c>
       <c r="N111" s="14"/>
-      <c r="O111" s="90" t="s">
+      <c r="O111" s="98" t="s">
         <v>235</v>
       </c>
       <c r="P111" s="6"/>
@@ -9054,7 +9053,7 @@
         <v>775</v>
       </c>
     </row>
-    <row r="112" spans="1:19" hidden="1">
+    <row r="112" spans="1:19">
       <c r="A112" s="49" t="s">
         <v>232</v>
       </c>
@@ -9107,7 +9106,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="113" spans="1:18" hidden="1">
+    <row r="113" spans="1:18">
       <c r="A113" s="49" t="s">
         <v>232</v>
       </c>
@@ -9160,7 +9159,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:18" hidden="1">
+    <row r="114" spans="1:18">
       <c r="A114" s="49" t="s">
         <v>232</v>
       </c>
@@ -9213,7 +9212,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="115" spans="1:18" hidden="1">
+    <row r="115" spans="1:18">
       <c r="A115" s="49" t="s">
         <v>232</v>
       </c>
@@ -9266,7 +9265,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="116" spans="1:18" hidden="1">
+    <row r="116" spans="1:18">
       <c r="A116" s="49" t="s">
         <v>232</v>
       </c>
@@ -9319,7 +9318,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="117" spans="1:18" hidden="1">
+    <row r="117" spans="1:18">
       <c r="A117" s="49" t="s">
         <v>232</v>
       </c>
@@ -9372,7 +9371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="118" spans="1:18" hidden="1">
+    <row r="118" spans="1:18">
       <c r="A118" s="49" t="s">
         <v>232</v>
       </c>
@@ -9425,7 +9424,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="119" spans="1:18" hidden="1">
+    <row r="119" spans="1:18">
       <c r="A119" s="49" t="s">
         <v>232</v>
       </c>
@@ -9478,7 +9477,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="120" spans="1:18" hidden="1">
+    <row r="120" spans="1:18">
       <c r="A120" s="49" t="s">
         <v>232</v>
       </c>
@@ -9531,7 +9530,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="121" spans="1:18" hidden="1">
+    <row r="121" spans="1:18">
       <c r="A121" s="49" t="s">
         <v>232</v>
       </c>
@@ -9584,7 +9583,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="122" spans="1:18" hidden="1">
+    <row r="122" spans="1:18">
       <c r="A122" s="49" t="s">
         <v>232</v>
       </c>
@@ -9637,7 +9636,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="123" spans="1:18" hidden="1">
+    <row r="123" spans="1:18">
       <c r="A123" s="49" t="s">
         <v>232</v>
       </c>
@@ -9690,7 +9689,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="124" spans="1:18" hidden="1">
+    <row r="124" spans="1:18">
       <c r="A124" s="49" t="s">
         <v>232</v>
       </c>
@@ -9778,7 +9777,7 @@
       </c>
       <c r="M125" s="6"/>
       <c r="N125" s="6"/>
-      <c r="O125" s="90" t="s">
+      <c r="O125" s="98" t="s">
         <v>267</v>
       </c>
       <c r="P125" s="6"/>
@@ -9820,7 +9819,7 @@
       </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
-      <c r="O126" s="90" t="s">
+      <c r="O126" s="98" t="s">
         <v>270</v>
       </c>
       <c r="P126" s="6"/>
@@ -9860,7 +9859,7 @@
       <c r="L127" s="6"/>
       <c r="M127" s="6"/>
       <c r="N127" s="6"/>
-      <c r="O127" s="94" t="s">
+      <c r="O127" s="99" t="s">
         <v>273</v>
       </c>
       <c r="P127" s="6"/>
@@ -9906,7 +9905,7 @@
       <c r="L128" s="6"/>
       <c r="M128" s="6"/>
       <c r="N128" s="6"/>
-      <c r="O128" s="90" t="s">
+      <c r="O128" s="98" t="s">
         <v>278</v>
       </c>
       <c r="P128" s="6"/>
@@ -9952,7 +9951,7 @@
       <c r="L129" s="6"/>
       <c r="M129" s="6"/>
       <c r="N129" s="6"/>
-      <c r="O129" s="90"/>
+      <c r="O129" s="98"/>
       <c r="P129" s="6"/>
       <c r="Q129" s="6" t="s">
         <v>18</v>
@@ -9996,7 +9995,7 @@
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
-      <c r="O130" s="90"/>
+      <c r="O130" s="98"/>
       <c r="P130" s="6"/>
       <c r="Q130" s="6" t="s">
         <v>18</v>
@@ -10040,7 +10039,7 @@
       <c r="L131" s="6"/>
       <c r="M131" s="6"/>
       <c r="N131" s="6"/>
-      <c r="O131" s="90"/>
+      <c r="O131" s="98"/>
       <c r="P131" s="6"/>
       <c r="Q131" s="6" t="s">
         <v>18</v>
@@ -10084,7 +10083,7 @@
       <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
-      <c r="O132" s="90"/>
+      <c r="O132" s="98"/>
       <c r="P132" s="6"/>
       <c r="Q132" s="6" t="s">
         <v>18</v>
@@ -10128,7 +10127,7 @@
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
-      <c r="O133" s="90"/>
+      <c r="O133" s="98"/>
       <c r="P133" s="6"/>
       <c r="Q133" s="6" t="s">
         <v>18</v>
@@ -10172,7 +10171,7 @@
       <c r="L134" s="6"/>
       <c r="M134" s="6"/>
       <c r="N134" s="6"/>
-      <c r="O134" s="90"/>
+      <c r="O134" s="98"/>
       <c r="P134" s="6"/>
       <c r="Q134" s="6" t="s">
         <v>18</v>
@@ -10216,7 +10215,7 @@
       <c r="L135" s="6"/>
       <c r="M135" s="6"/>
       <c r="N135" s="6"/>
-      <c r="O135" s="90"/>
+      <c r="O135" s="98"/>
       <c r="P135" s="6"/>
       <c r="Q135" s="6" t="s">
         <v>18</v>
@@ -10260,7 +10259,7 @@
       <c r="L136" s="6"/>
       <c r="M136" s="6"/>
       <c r="N136" s="6"/>
-      <c r="O136" s="90"/>
+      <c r="O136" s="98"/>
       <c r="P136" s="6"/>
       <c r="Q136" s="6" t="s">
         <v>18</v>
@@ -10304,7 +10303,7 @@
       <c r="L137" s="6"/>
       <c r="M137" s="6"/>
       <c r="N137" s="6"/>
-      <c r="O137" s="90"/>
+      <c r="O137" s="98"/>
       <c r="P137" s="6"/>
       <c r="Q137" s="6" t="s">
         <v>18</v>
@@ -10348,7 +10347,7 @@
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
-      <c r="O138" s="90"/>
+      <c r="O138" s="98"/>
       <c r="P138" s="6"/>
       <c r="Q138" s="6" t="s">
         <v>18</v>
@@ -10392,7 +10391,7 @@
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
-      <c r="O139" s="90"/>
+      <c r="O139" s="98"/>
       <c r="P139" s="6"/>
       <c r="Q139" s="6" t="s">
         <v>18</v>
@@ -10436,7 +10435,7 @@
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
-      <c r="O140" s="90"/>
+      <c r="O140" s="98"/>
       <c r="P140" s="6"/>
       <c r="Q140" s="6" t="s">
         <v>18</v>
@@ -10476,7 +10475,7 @@
       </c>
       <c r="M141" s="6"/>
       <c r="N141" s="6"/>
-      <c r="O141" s="90" t="s">
+      <c r="O141" s="98" t="s">
         <v>308</v>
       </c>
       <c r="P141" s="6"/>
@@ -10518,7 +10517,7 @@
       </c>
       <c r="M142" s="6"/>
       <c r="N142" s="6"/>
-      <c r="O142" s="90"/>
+      <c r="O142" s="98"/>
       <c r="P142" s="6"/>
       <c r="Q142" s="6" t="s">
         <v>18</v>
@@ -10527,7 +10526,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="143" spans="1:18" ht="15" thickBot="1">
+    <row r="143" spans="1:18" ht="15.75" thickBot="1">
       <c r="A143" s="49" t="s">
         <v>232</v>
       </c>
@@ -10558,7 +10557,7 @@
       </c>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
-      <c r="O143" s="90"/>
+      <c r="O143" s="98"/>
       <c r="P143" s="6"/>
       <c r="Q143" s="6" t="s">
         <v>18</v>
@@ -10567,7 +10566,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="144" spans="1:18" ht="15" thickBot="1">
+    <row r="144" spans="1:18" ht="15.75" thickBot="1">
       <c r="A144" s="49" t="s">
         <v>232</v>
       </c>
@@ -10577,19 +10576,19 @@
       <c r="C144" s="2">
         <v>14.1</v>
       </c>
-      <c r="D144" s="91" t="s">
+      <c r="D144" s="96" t="s">
         <v>316</v>
       </c>
-      <c r="E144" s="92" t="s">
+      <c r="E144" s="97" t="s">
         <v>317</v>
       </c>
-      <c r="F144" s="92" t="s">
+      <c r="F144" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="G144" s="92" t="s">
+      <c r="G144" s="97" t="s">
         <v>318</v>
       </c>
-      <c r="H144" s="92" t="s">
+      <c r="H144" s="97" t="s">
         <v>220</v>
       </c>
       <c r="I144" s="6" t="s">
@@ -10606,7 +10605,7 @@
       </c>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
-      <c r="O144" s="90" t="s">
+      <c r="O144" s="98" t="s">
         <v>321</v>
       </c>
       <c r="P144" s="6"/>
@@ -10617,7 +10616,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="145" spans="1:18" ht="15" thickBot="1">
+    <row r="145" spans="1:18" ht="15.75" thickBot="1">
       <c r="A145" s="49" t="s">
         <v>232</v>
       </c>
@@ -10627,11 +10626,11 @@
       <c r="C145" s="2">
         <v>14.1</v>
       </c>
-      <c r="D145" s="91"/>
-      <c r="E145" s="92"/>
-      <c r="F145" s="92"/>
-      <c r="G145" s="92"/>
-      <c r="H145" s="92"/>
+      <c r="D145" s="96"/>
+      <c r="E145" s="97"/>
+      <c r="F145" s="97"/>
+      <c r="G145" s="97"/>
+      <c r="H145" s="97"/>
       <c r="I145" s="6" t="s">
         <v>322</v>
       </c>
@@ -10646,7 +10645,7 @@
       </c>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
-      <c r="O145" s="90"/>
+      <c r="O145" s="98"/>
       <c r="P145" s="6"/>
       <c r="Q145" s="6" t="s">
         <v>18</v>
@@ -10655,7 +10654,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="146" spans="1:18" ht="15" thickBot="1">
+    <row r="146" spans="1:18" ht="15.75" thickBot="1">
       <c r="A146" s="49" t="s">
         <v>232</v>
       </c>
@@ -10665,11 +10664,11 @@
       <c r="C146" s="2">
         <v>14.1</v>
       </c>
-      <c r="D146" s="91"/>
-      <c r="E146" s="92"/>
-      <c r="F146" s="92"/>
-      <c r="G146" s="92"/>
-      <c r="H146" s="92"/>
+      <c r="D146" s="96"/>
+      <c r="E146" s="97"/>
+      <c r="F146" s="97"/>
+      <c r="G146" s="97"/>
+      <c r="H146" s="97"/>
       <c r="I146" s="6" t="s">
         <v>324</v>
       </c>
@@ -10684,7 +10683,7 @@
       </c>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
-      <c r="O146" s="90"/>
+      <c r="O146" s="98"/>
       <c r="P146" s="6"/>
       <c r="Q146" s="6" t="s">
         <v>18</v>
@@ -10693,7 +10692,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="147" spans="1:18" ht="15" thickBot="1">
+    <row r="147" spans="1:18" ht="15.75" thickBot="1">
       <c r="A147" s="49" t="s">
         <v>232</v>
       </c>
@@ -10703,11 +10702,11 @@
       <c r="C147" s="2">
         <v>14.1</v>
       </c>
-      <c r="D147" s="91"/>
-      <c r="E147" s="92"/>
-      <c r="F147" s="92"/>
-      <c r="G147" s="92"/>
-      <c r="H147" s="92"/>
+      <c r="D147" s="96"/>
+      <c r="E147" s="97"/>
+      <c r="F147" s="97"/>
+      <c r="G147" s="97"/>
+      <c r="H147" s="97"/>
       <c r="I147" s="6" t="s">
         <v>326</v>
       </c>
@@ -10722,7 +10721,7 @@
       </c>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
-      <c r="O147" s="90"/>
+      <c r="O147" s="98"/>
       <c r="P147" s="6"/>
       <c r="Q147" s="6" t="s">
         <v>18</v>
@@ -10731,7 +10730,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="148" spans="1:18" ht="15" thickBot="1">
+    <row r="148" spans="1:18" ht="15.75" thickBot="1">
       <c r="A148" s="49" t="s">
         <v>232</v>
       </c>
@@ -10741,11 +10740,11 @@
       <c r="C148" s="2">
         <v>14.1</v>
       </c>
-      <c r="D148" s="91"/>
-      <c r="E148" s="92"/>
-      <c r="F148" s="92"/>
-      <c r="G148" s="92"/>
-      <c r="H148" s="92"/>
+      <c r="D148" s="96"/>
+      <c r="E148" s="97"/>
+      <c r="F148" s="97"/>
+      <c r="G148" s="97"/>
+      <c r="H148" s="97"/>
       <c r="I148" s="6" t="s">
         <v>328</v>
       </c>
@@ -10760,7 +10759,7 @@
       </c>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
-      <c r="O148" s="90"/>
+      <c r="O148" s="98"/>
       <c r="P148" s="6"/>
       <c r="Q148" s="6" t="s">
         <v>18</v>
@@ -10769,7 +10768,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="149" spans="1:18" ht="15" thickBot="1">
+    <row r="149" spans="1:18" ht="15.75" thickBot="1">
       <c r="A149" s="49" t="s">
         <v>232</v>
       </c>
@@ -10779,11 +10778,11 @@
       <c r="C149" s="2">
         <v>14.1</v>
       </c>
-      <c r="D149" s="91"/>
-      <c r="E149" s="92"/>
-      <c r="F149" s="92"/>
-      <c r="G149" s="92"/>
-      <c r="H149" s="92"/>
+      <c r="D149" s="96"/>
+      <c r="E149" s="97"/>
+      <c r="F149" s="97"/>
+      <c r="G149" s="97"/>
+      <c r="H149" s="97"/>
       <c r="I149" s="6" t="s">
         <v>330</v>
       </c>
@@ -10798,7 +10797,7 @@
       </c>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
-      <c r="O149" s="90"/>
+      <c r="O149" s="98"/>
       <c r="P149" s="6"/>
       <c r="Q149" s="6" t="s">
         <v>18</v>
@@ -10817,11 +10816,11 @@
       <c r="C150" s="2">
         <v>14.1</v>
       </c>
-      <c r="D150" s="91"/>
-      <c r="E150" s="92"/>
-      <c r="F150" s="92"/>
-      <c r="G150" s="92"/>
-      <c r="H150" s="92"/>
+      <c r="D150" s="96"/>
+      <c r="E150" s="97"/>
+      <c r="F150" s="97"/>
+      <c r="G150" s="97"/>
+      <c r="H150" s="97"/>
       <c r="I150" s="6" t="s">
         <v>332</v>
       </c>
@@ -10834,7 +10833,7 @@
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
-      <c r="O150" s="90"/>
+      <c r="O150" s="98"/>
       <c r="P150" s="6"/>
       <c r="Q150" s="6" t="s">
         <v>18</v>
@@ -10853,11 +10852,11 @@
       <c r="C151" s="2">
         <v>14.1</v>
       </c>
-      <c r="D151" s="91"/>
-      <c r="E151" s="92"/>
-      <c r="F151" s="92"/>
-      <c r="G151" s="92"/>
-      <c r="H151" s="92"/>
+      <c r="D151" s="96"/>
+      <c r="E151" s="97"/>
+      <c r="F151" s="97"/>
+      <c r="G151" s="97"/>
+      <c r="H151" s="97"/>
       <c r="I151" s="6" t="s">
         <v>334</v>
       </c>
@@ -10870,7 +10869,7 @@
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="6"/>
-      <c r="O151" s="90"/>
+      <c r="O151" s="98"/>
       <c r="P151" s="6"/>
       <c r="Q151" s="6" t="s">
         <v>18</v>
@@ -10879,7 +10878,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="152" spans="1:18" ht="15" thickBot="1">
+    <row r="152" spans="1:18" ht="15.75" thickBot="1">
       <c r="A152" s="49" t="s">
         <v>232</v>
       </c>
@@ -10889,11 +10888,11 @@
       <c r="C152" s="2">
         <v>14.1</v>
       </c>
-      <c r="D152" s="91"/>
-      <c r="E152" s="92"/>
-      <c r="F152" s="92"/>
-      <c r="G152" s="92"/>
-      <c r="H152" s="92"/>
+      <c r="D152" s="96"/>
+      <c r="E152" s="97"/>
+      <c r="F152" s="97"/>
+      <c r="G152" s="97"/>
+      <c r="H152" s="97"/>
       <c r="I152" s="6" t="s">
         <v>336</v>
       </c>
@@ -10906,7 +10905,7 @@
       </c>
       <c r="M152" s="6"/>
       <c r="N152" s="6"/>
-      <c r="O152" s="90"/>
+      <c r="O152" s="98"/>
       <c r="P152" s="6"/>
       <c r="Q152" s="6" t="s">
         <v>18</v>
@@ -10915,7 +10914,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="153" spans="1:18" ht="15" thickBot="1">
+    <row r="153" spans="1:18" ht="15.75" thickBot="1">
       <c r="A153" s="49" t="s">
         <v>232</v>
       </c>
@@ -10925,11 +10924,11 @@
       <c r="C153" s="2">
         <v>14.1</v>
       </c>
-      <c r="D153" s="91"/>
-      <c r="E153" s="92"/>
-      <c r="F153" s="92"/>
-      <c r="G153" s="92"/>
-      <c r="H153" s="92"/>
+      <c r="D153" s="96"/>
+      <c r="E153" s="97"/>
+      <c r="F153" s="97"/>
+      <c r="G153" s="97"/>
+      <c r="H153" s="97"/>
       <c r="I153" s="6" t="s">
         <v>338</v>
       </c>
@@ -10942,7 +10941,7 @@
       </c>
       <c r="M153" s="6"/>
       <c r="N153" s="6"/>
-      <c r="O153" s="90"/>
+      <c r="O153" s="98"/>
       <c r="P153" s="6"/>
       <c r="Q153" s="6" t="s">
         <v>18</v>
@@ -10951,7 +10950,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="154" spans="1:18" ht="15" thickBot="1">
+    <row r="154" spans="1:18" ht="15.75" thickBot="1">
       <c r="A154" s="49" t="s">
         <v>232</v>
       </c>
@@ -10961,11 +10960,11 @@
       <c r="C154" s="2">
         <v>14.1</v>
       </c>
-      <c r="D154" s="91"/>
-      <c r="E154" s="92"/>
-      <c r="F154" s="92"/>
-      <c r="G154" s="92"/>
-      <c r="H154" s="92"/>
+      <c r="D154" s="96"/>
+      <c r="E154" s="97"/>
+      <c r="F154" s="97"/>
+      <c r="G154" s="97"/>
+      <c r="H154" s="97"/>
       <c r="I154" s="6" t="s">
         <v>340</v>
       </c>
@@ -10978,7 +10977,7 @@
       </c>
       <c r="M154" s="6"/>
       <c r="N154" s="6"/>
-      <c r="O154" s="90"/>
+      <c r="O154" s="98"/>
       <c r="P154" s="6"/>
       <c r="Q154" s="6" t="s">
         <v>18</v>
@@ -10987,7 +10986,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="155" spans="1:18" ht="15" thickBot="1">
+    <row r="155" spans="1:18" ht="15.75" thickBot="1">
       <c r="A155" s="49" t="s">
         <v>232</v>
       </c>
@@ -10997,11 +10996,11 @@
       <c r="C155" s="2">
         <v>14.1</v>
       </c>
-      <c r="D155" s="91"/>
-      <c r="E155" s="92"/>
-      <c r="F155" s="92"/>
-      <c r="G155" s="92"/>
-      <c r="H155" s="92"/>
+      <c r="D155" s="96"/>
+      <c r="E155" s="97"/>
+      <c r="F155" s="97"/>
+      <c r="G155" s="97"/>
+      <c r="H155" s="97"/>
       <c r="I155" s="4" t="s">
         <v>342</v>
       </c>
@@ -11014,7 +11013,7 @@
       </c>
       <c r="M155" s="6"/>
       <c r="N155" s="6"/>
-      <c r="O155" s="90"/>
+      <c r="O155" s="98"/>
       <c r="P155" s="6"/>
       <c r="Q155" s="6" t="s">
         <v>18</v>
@@ -11023,7 +11022,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="156" spans="1:18" ht="15" thickBot="1">
+    <row r="156" spans="1:18" ht="15.75" thickBot="1">
       <c r="A156" s="49" t="s">
         <v>232</v>
       </c>
@@ -11033,11 +11032,11 @@
       <c r="C156" s="2">
         <v>14.1</v>
       </c>
-      <c r="D156" s="91"/>
-      <c r="E156" s="92"/>
-      <c r="F156" s="92"/>
-      <c r="G156" s="92"/>
-      <c r="H156" s="92"/>
+      <c r="D156" s="96"/>
+      <c r="E156" s="97"/>
+      <c r="F156" s="97"/>
+      <c r="G156" s="97"/>
+      <c r="H156" s="97"/>
       <c r="I156" s="6" t="s">
         <v>344</v>
       </c>
@@ -11050,7 +11049,7 @@
       </c>
       <c r="M156" s="6"/>
       <c r="N156" s="6"/>
-      <c r="O156" s="90"/>
+      <c r="O156" s="98"/>
       <c r="P156" s="6"/>
       <c r="Q156" s="6" t="s">
         <v>18</v>
@@ -11059,7 +11058,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="157" spans="1:18" ht="15" thickBot="1">
+    <row r="157" spans="1:18" ht="15.75" thickBot="1">
       <c r="A157" s="49" t="s">
         <v>232</v>
       </c>
@@ -11069,11 +11068,11 @@
       <c r="C157" s="2">
         <v>14.1</v>
       </c>
-      <c r="D157" s="91"/>
-      <c r="E157" s="92"/>
-      <c r="F157" s="92"/>
-      <c r="G157" s="92"/>
-      <c r="H157" s="92"/>
+      <c r="D157" s="96"/>
+      <c r="E157" s="97"/>
+      <c r="F157" s="97"/>
+      <c r="G157" s="97"/>
+      <c r="H157" s="97"/>
       <c r="I157" s="6" t="s">
         <v>346</v>
       </c>
@@ -11086,7 +11085,7 @@
       </c>
       <c r="M157" s="6"/>
       <c r="N157" s="6"/>
-      <c r="O157" s="90"/>
+      <c r="O157" s="98"/>
       <c r="P157" s="6"/>
       <c r="Q157" s="6" t="s">
         <v>18</v>
@@ -11095,7 +11094,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="158" spans="1:18" ht="15" thickBot="1">
+    <row r="158" spans="1:18" ht="15.75" thickBot="1">
       <c r="A158" s="49" t="s">
         <v>232</v>
       </c>
@@ -11105,11 +11104,11 @@
       <c r="C158" s="2">
         <v>14.1</v>
       </c>
-      <c r="D158" s="91"/>
-      <c r="E158" s="92"/>
-      <c r="F158" s="92"/>
-      <c r="G158" s="92"/>
-      <c r="H158" s="92"/>
+      <c r="D158" s="96"/>
+      <c r="E158" s="97"/>
+      <c r="F158" s="97"/>
+      <c r="G158" s="97"/>
+      <c r="H158" s="97"/>
       <c r="I158" s="6" t="s">
         <v>348</v>
       </c>
@@ -11122,7 +11121,7 @@
       </c>
       <c r="M158" s="6"/>
       <c r="N158" s="6"/>
-      <c r="O158" s="90"/>
+      <c r="O158" s="98"/>
       <c r="P158" s="6"/>
       <c r="Q158" s="6" t="s">
         <v>18</v>
@@ -11131,7 +11130,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="159" spans="1:18" ht="15" thickBot="1">
+    <row r="159" spans="1:18" ht="15.75" thickBot="1">
       <c r="A159" s="49" t="s">
         <v>232</v>
       </c>
@@ -11141,11 +11140,11 @@
       <c r="C159" s="2">
         <v>14.1</v>
       </c>
-      <c r="D159" s="91"/>
-      <c r="E159" s="92"/>
-      <c r="F159" s="92"/>
-      <c r="G159" s="92"/>
-      <c r="H159" s="92"/>
+      <c r="D159" s="96"/>
+      <c r="E159" s="97"/>
+      <c r="F159" s="97"/>
+      <c r="G159" s="97"/>
+      <c r="H159" s="97"/>
       <c r="I159" s="6" t="s">
         <v>350</v>
       </c>
@@ -11158,7 +11157,7 @@
       </c>
       <c r="M159" s="6"/>
       <c r="N159" s="6"/>
-      <c r="O159" s="90"/>
+      <c r="O159" s="98"/>
       <c r="P159" s="6"/>
       <c r="Q159" s="6" t="s">
         <v>18</v>
@@ -11167,7 +11166,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="160" spans="1:18" ht="15" thickBot="1">
+    <row r="160" spans="1:18" ht="15.75" thickBot="1">
       <c r="A160" s="49" t="s">
         <v>232</v>
       </c>
@@ -11177,11 +11176,11 @@
       <c r="C160" s="2">
         <v>14.1</v>
       </c>
-      <c r="D160" s="91"/>
-      <c r="E160" s="92"/>
-      <c r="F160" s="92"/>
-      <c r="G160" s="92"/>
-      <c r="H160" s="92"/>
+      <c r="D160" s="96"/>
+      <c r="E160" s="97"/>
+      <c r="F160" s="97"/>
+      <c r="G160" s="97"/>
+      <c r="H160" s="97"/>
       <c r="I160" s="6" t="s">
         <v>352</v>
       </c>
@@ -11194,7 +11193,7 @@
       </c>
       <c r="M160" s="6"/>
       <c r="N160" s="6"/>
-      <c r="O160" s="90"/>
+      <c r="O160" s="98"/>
       <c r="P160" s="6"/>
       <c r="Q160" s="6" t="s">
         <v>18</v>
@@ -11203,7 +11202,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="161" spans="1:18" ht="15" thickBot="1">
+    <row r="161" spans="1:18" ht="15.75" thickBot="1">
       <c r="A161" s="49" t="s">
         <v>232</v>
       </c>
@@ -11213,11 +11212,11 @@
       <c r="C161" s="2">
         <v>14.1</v>
       </c>
-      <c r="D161" s="91"/>
-      <c r="E161" s="92"/>
-      <c r="F161" s="92"/>
-      <c r="G161" s="92"/>
-      <c r="H161" s="92"/>
+      <c r="D161" s="96"/>
+      <c r="E161" s="97"/>
+      <c r="F161" s="97"/>
+      <c r="G161" s="97"/>
+      <c r="H161" s="97"/>
       <c r="I161" s="4" t="s">
         <v>354</v>
       </c>
@@ -11230,7 +11229,7 @@
       </c>
       <c r="M161" s="6"/>
       <c r="N161" s="6"/>
-      <c r="O161" s="90"/>
+      <c r="O161" s="98"/>
       <c r="P161" s="6"/>
       <c r="Q161" s="6" t="s">
         <v>18</v>
@@ -11239,7 +11238,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="162" spans="1:18" ht="15" thickBot="1">
+    <row r="162" spans="1:18" ht="15.75" thickBot="1">
       <c r="A162" s="49" t="s">
         <v>232</v>
       </c>
@@ -11249,11 +11248,11 @@
       <c r="C162" s="2">
         <v>14.1</v>
       </c>
-      <c r="D162" s="91"/>
-      <c r="E162" s="92"/>
-      <c r="F162" s="92"/>
-      <c r="G162" s="92"/>
-      <c r="H162" s="92"/>
+      <c r="D162" s="96"/>
+      <c r="E162" s="97"/>
+      <c r="F162" s="97"/>
+      <c r="G162" s="97"/>
+      <c r="H162" s="97"/>
       <c r="I162" s="6" t="s">
         <v>356</v>
       </c>
@@ -11266,7 +11265,7 @@
       </c>
       <c r="M162" s="6"/>
       <c r="N162" s="6"/>
-      <c r="O162" s="90"/>
+      <c r="O162" s="98"/>
       <c r="P162" s="6"/>
       <c r="Q162" s="6" t="s">
         <v>18</v>
@@ -11275,7 +11274,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="163" spans="1:18" ht="29.4" customHeight="1" thickBot="1">
+    <row r="163" spans="1:18" ht="29.45" customHeight="1" thickBot="1">
       <c r="A163" s="49" t="s">
         <v>232</v>
       </c>
@@ -11285,11 +11284,11 @@
       <c r="C163" s="2">
         <v>14.1</v>
       </c>
-      <c r="D163" s="91"/>
-      <c r="E163" s="92"/>
-      <c r="F163" s="92"/>
-      <c r="G163" s="92"/>
-      <c r="H163" s="92"/>
+      <c r="D163" s="96"/>
+      <c r="E163" s="97"/>
+      <c r="F163" s="97"/>
+      <c r="G163" s="97"/>
+      <c r="H163" s="97"/>
       <c r="I163" s="6" t="s">
         <v>358</v>
       </c>
@@ -11302,7 +11301,7 @@
       </c>
       <c r="M163" s="6"/>
       <c r="N163" s="6"/>
-      <c r="O163" s="90"/>
+      <c r="O163" s="98"/>
       <c r="P163" s="6"/>
       <c r="Q163" s="6" t="s">
         <v>18</v>
@@ -11311,7 +11310,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="164" spans="1:18" ht="15" thickBot="1">
+    <row r="164" spans="1:18" ht="15.75" thickBot="1">
       <c r="A164" s="49" t="s">
         <v>232</v>
       </c>
@@ -11321,11 +11320,11 @@
       <c r="C164" s="2">
         <v>14.1</v>
       </c>
-      <c r="D164" s="91"/>
-      <c r="E164" s="92"/>
-      <c r="F164" s="92"/>
-      <c r="G164" s="92"/>
-      <c r="H164" s="92"/>
+      <c r="D164" s="96"/>
+      <c r="E164" s="97"/>
+      <c r="F164" s="97"/>
+      <c r="G164" s="97"/>
+      <c r="H164" s="97"/>
       <c r="I164" s="4" t="s">
         <v>360</v>
       </c>
@@ -11338,7 +11337,7 @@
       </c>
       <c r="M164" s="6"/>
       <c r="N164" s="6"/>
-      <c r="O164" s="90"/>
+      <c r="O164" s="98"/>
       <c r="P164" s="6"/>
       <c r="Q164" s="6" t="s">
         <v>18</v>
@@ -11347,7 +11346,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="165" spans="1:18" ht="15" thickBot="1">
+    <row r="165" spans="1:18" ht="15.75" thickBot="1">
       <c r="A165" s="49" t="s">
         <v>232</v>
       </c>
@@ -11357,11 +11356,11 @@
       <c r="C165" s="2">
         <v>14.1</v>
       </c>
-      <c r="D165" s="91"/>
-      <c r="E165" s="92"/>
-      <c r="F165" s="92"/>
-      <c r="G165" s="92"/>
-      <c r="H165" s="92"/>
+      <c r="D165" s="96"/>
+      <c r="E165" s="97"/>
+      <c r="F165" s="97"/>
+      <c r="G165" s="97"/>
+      <c r="H165" s="97"/>
       <c r="I165" s="6" t="s">
         <v>362</v>
       </c>
@@ -11374,7 +11373,7 @@
       </c>
       <c r="M165" s="6"/>
       <c r="N165" s="6"/>
-      <c r="O165" s="90"/>
+      <c r="O165" s="98"/>
       <c r="P165" s="6"/>
       <c r="Q165" s="6" t="s">
         <v>18</v>
@@ -11383,7 +11382,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="166" spans="1:18" ht="15" thickBot="1">
+    <row r="166" spans="1:18" ht="15.75" thickBot="1">
       <c r="A166" s="49" t="s">
         <v>232</v>
       </c>
@@ -11393,11 +11392,11 @@
       <c r="C166" s="2">
         <v>14.1</v>
       </c>
-      <c r="D166" s="91"/>
-      <c r="E166" s="92"/>
-      <c r="F166" s="92"/>
-      <c r="G166" s="92"/>
-      <c r="H166" s="92"/>
+      <c r="D166" s="96"/>
+      <c r="E166" s="97"/>
+      <c r="F166" s="97"/>
+      <c r="G166" s="97"/>
+      <c r="H166" s="97"/>
       <c r="I166" s="6" t="s">
         <v>364</v>
       </c>
@@ -11410,7 +11409,7 @@
       </c>
       <c r="M166" s="6"/>
       <c r="N166" s="6"/>
-      <c r="O166" s="90"/>
+      <c r="O166" s="98"/>
       <c r="P166" s="6"/>
       <c r="Q166" s="6" t="s">
         <v>18</v>
@@ -11419,7 +11418,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="167" spans="1:18" ht="15" thickBot="1">
+    <row r="167" spans="1:18" ht="15.75" thickBot="1">
       <c r="A167" s="49" t="s">
         <v>232</v>
       </c>
@@ -11429,11 +11428,11 @@
       <c r="C167" s="2">
         <v>14.1</v>
       </c>
-      <c r="D167" s="91"/>
-      <c r="E167" s="92"/>
-      <c r="F167" s="92"/>
-      <c r="G167" s="92"/>
-      <c r="H167" s="92"/>
+      <c r="D167" s="96"/>
+      <c r="E167" s="97"/>
+      <c r="F167" s="97"/>
+      <c r="G167" s="97"/>
+      <c r="H167" s="97"/>
       <c r="I167" s="4" t="s">
         <v>366</v>
       </c>
@@ -11446,7 +11445,7 @@
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
-      <c r="O167" s="90"/>
+      <c r="O167" s="98"/>
       <c r="P167" s="6"/>
       <c r="Q167" s="6" t="s">
         <v>18</v>
@@ -11455,7 +11454,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="168" spans="1:18" ht="15" thickBot="1">
+    <row r="168" spans="1:18" ht="15.75" thickBot="1">
       <c r="A168" s="49" t="s">
         <v>232</v>
       </c>
@@ -11465,11 +11464,11 @@
       <c r="C168" s="2">
         <v>14.1</v>
       </c>
-      <c r="D168" s="91"/>
-      <c r="E168" s="92"/>
-      <c r="F168" s="92"/>
-      <c r="G168" s="92"/>
-      <c r="H168" s="92"/>
+      <c r="D168" s="96"/>
+      <c r="E168" s="97"/>
+      <c r="F168" s="97"/>
+      <c r="G168" s="97"/>
+      <c r="H168" s="97"/>
       <c r="I168" s="6" t="s">
         <v>368</v>
       </c>
@@ -11482,7 +11481,7 @@
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
-      <c r="O168" s="90"/>
+      <c r="O168" s="98"/>
       <c r="P168" s="6"/>
       <c r="Q168" s="6" t="s">
         <v>18</v>
@@ -11491,7 +11490,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="169" spans="1:18" ht="15" thickBot="1">
+    <row r="169" spans="1:18" ht="15.75" thickBot="1">
       <c r="A169" s="49" t="s">
         <v>232</v>
       </c>
@@ -11501,11 +11500,11 @@
       <c r="C169" s="2">
         <v>14.1</v>
       </c>
-      <c r="D169" s="91"/>
-      <c r="E169" s="92"/>
-      <c r="F169" s="92"/>
-      <c r="G169" s="92"/>
-      <c r="H169" s="92"/>
+      <c r="D169" s="96"/>
+      <c r="E169" s="97"/>
+      <c r="F169" s="97"/>
+      <c r="G169" s="97"/>
+      <c r="H169" s="97"/>
       <c r="I169" s="6" t="s">
         <v>370</v>
       </c>
@@ -11518,7 +11517,7 @@
       </c>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
-      <c r="O169" s="90"/>
+      <c r="O169" s="98"/>
       <c r="P169" s="6"/>
       <c r="Q169" s="6" t="s">
         <v>18</v>
@@ -11527,7 +11526,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="170" spans="1:18" ht="15" thickBot="1">
+    <row r="170" spans="1:18" ht="15.75" thickBot="1">
       <c r="A170" s="49" t="s">
         <v>232</v>
       </c>
@@ -11537,11 +11536,11 @@
       <c r="C170" s="2">
         <v>14.1</v>
       </c>
-      <c r="D170" s="91"/>
-      <c r="E170" s="92"/>
-      <c r="F170" s="92"/>
-      <c r="G170" s="92"/>
-      <c r="H170" s="92"/>
+      <c r="D170" s="96"/>
+      <c r="E170" s="97"/>
+      <c r="F170" s="97"/>
+      <c r="G170" s="97"/>
+      <c r="H170" s="97"/>
       <c r="I170" s="6" t="s">
         <v>372</v>
       </c>
@@ -11554,7 +11553,7 @@
       </c>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
-      <c r="O170" s="90"/>
+      <c r="O170" s="98"/>
       <c r="P170" s="6"/>
       <c r="Q170" s="6" t="s">
         <v>18</v>
@@ -11563,7 +11562,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="171" spans="1:18" ht="15" thickBot="1">
+    <row r="171" spans="1:18" ht="15.75" thickBot="1">
       <c r="A171" s="49" t="s">
         <v>232</v>
       </c>
@@ -11573,11 +11572,11 @@
       <c r="C171" s="2">
         <v>14.1</v>
       </c>
-      <c r="D171" s="91"/>
-      <c r="E171" s="92"/>
-      <c r="F171" s="92"/>
-      <c r="G171" s="92"/>
-      <c r="H171" s="92"/>
+      <c r="D171" s="96"/>
+      <c r="E171" s="97"/>
+      <c r="F171" s="97"/>
+      <c r="G171" s="97"/>
+      <c r="H171" s="97"/>
       <c r="I171" s="6" t="s">
         <v>374</v>
       </c>
@@ -11590,7 +11589,7 @@
       </c>
       <c r="M171" s="6"/>
       <c r="N171" s="6"/>
-      <c r="O171" s="90"/>
+      <c r="O171" s="98"/>
       <c r="P171" s="6"/>
       <c r="Q171" s="6" t="s">
         <v>18</v>
@@ -11599,7 +11598,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="172" spans="1:18" ht="15" thickBot="1">
+    <row r="172" spans="1:18" ht="15.75" thickBot="1">
       <c r="A172" s="49" t="s">
         <v>232</v>
       </c>
@@ -11609,11 +11608,11 @@
       <c r="C172" s="2">
         <v>14.1</v>
       </c>
-      <c r="D172" s="91"/>
-      <c r="E172" s="92"/>
-      <c r="F172" s="92"/>
-      <c r="G172" s="92"/>
-      <c r="H172" s="92"/>
+      <c r="D172" s="96"/>
+      <c r="E172" s="97"/>
+      <c r="F172" s="97"/>
+      <c r="G172" s="97"/>
+      <c r="H172" s="97"/>
       <c r="I172" s="6" t="s">
         <v>376</v>
       </c>
@@ -11626,7 +11625,7 @@
       </c>
       <c r="M172" s="6"/>
       <c r="N172" s="6"/>
-      <c r="O172" s="90"/>
+      <c r="O172" s="98"/>
       <c r="P172" s="6"/>
       <c r="Q172" s="6" t="s">
         <v>18</v>
@@ -11635,7 +11634,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="173" spans="1:18" ht="15" thickBot="1">
+    <row r="173" spans="1:18" ht="15.75" thickBot="1">
       <c r="A173" s="49" t="s">
         <v>232</v>
       </c>
@@ -11645,11 +11644,11 @@
       <c r="C173" s="2">
         <v>14.1</v>
       </c>
-      <c r="D173" s="91"/>
-      <c r="E173" s="92"/>
-      <c r="F173" s="92"/>
-      <c r="G173" s="92"/>
-      <c r="H173" s="92"/>
+      <c r="D173" s="96"/>
+      <c r="E173" s="97"/>
+      <c r="F173" s="97"/>
+      <c r="G173" s="97"/>
+      <c r="H173" s="97"/>
       <c r="I173" s="6" t="s">
         <v>378</v>
       </c>
@@ -11662,7 +11661,7 @@
       </c>
       <c r="M173" s="6"/>
       <c r="N173" s="6"/>
-      <c r="O173" s="90"/>
+      <c r="O173" s="98"/>
       <c r="P173" s="6"/>
       <c r="Q173" s="6" t="s">
         <v>18</v>
@@ -11671,7 +11670,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="174" spans="1:18" ht="15" thickBot="1">
+    <row r="174" spans="1:18" ht="15.75" thickBot="1">
       <c r="A174" s="49" t="s">
         <v>232</v>
       </c>
@@ -11681,11 +11680,11 @@
       <c r="C174" s="2">
         <v>14.1</v>
       </c>
-      <c r="D174" s="91"/>
-      <c r="E174" s="92"/>
-      <c r="F174" s="92"/>
-      <c r="G174" s="92"/>
-      <c r="H174" s="92"/>
+      <c r="D174" s="96"/>
+      <c r="E174" s="97"/>
+      <c r="F174" s="97"/>
+      <c r="G174" s="97"/>
+      <c r="H174" s="97"/>
       <c r="I174" s="6" t="s">
         <v>380</v>
       </c>
@@ -11698,7 +11697,7 @@
       </c>
       <c r="M174" s="6"/>
       <c r="N174" s="6"/>
-      <c r="O174" s="90"/>
+      <c r="O174" s="98"/>
       <c r="P174" s="6"/>
       <c r="Q174" s="6" t="s">
         <v>18</v>
@@ -11707,7 +11706,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="175" spans="1:18" ht="15" thickBot="1">
+    <row r="175" spans="1:18" ht="15.75" thickBot="1">
       <c r="A175" s="49" t="s">
         <v>232</v>
       </c>
@@ -11717,11 +11716,11 @@
       <c r="C175" s="2">
         <v>14.1</v>
       </c>
-      <c r="D175" s="91"/>
-      <c r="E175" s="92"/>
-      <c r="F175" s="92"/>
-      <c r="G175" s="92"/>
-      <c r="H175" s="92"/>
+      <c r="D175" s="96"/>
+      <c r="E175" s="97"/>
+      <c r="F175" s="97"/>
+      <c r="G175" s="97"/>
+      <c r="H175" s="97"/>
       <c r="I175" s="6" t="s">
         <v>382</v>
       </c>
@@ -11734,7 +11733,7 @@
       </c>
       <c r="M175" s="6"/>
       <c r="N175" s="6"/>
-      <c r="O175" s="90"/>
+      <c r="O175" s="98"/>
       <c r="P175" s="6"/>
       <c r="Q175" s="6" t="s">
         <v>18</v>
@@ -11743,7 +11742,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="176" spans="1:18" ht="15" thickBot="1">
+    <row r="176" spans="1:18" ht="15.75" thickBot="1">
       <c r="A176" s="49" t="s">
         <v>232</v>
       </c>
@@ -11753,11 +11752,11 @@
       <c r="C176" s="2">
         <v>14.1</v>
       </c>
-      <c r="D176" s="91"/>
-      <c r="E176" s="92"/>
-      <c r="F176" s="92"/>
-      <c r="G176" s="92"/>
-      <c r="H176" s="92"/>
+      <c r="D176" s="96"/>
+      <c r="E176" s="97"/>
+      <c r="F176" s="97"/>
+      <c r="G176" s="97"/>
+      <c r="H176" s="97"/>
       <c r="I176" s="6" t="s">
         <v>384</v>
       </c>
@@ -11770,7 +11769,7 @@
       </c>
       <c r="M176" s="6"/>
       <c r="N176" s="6"/>
-      <c r="O176" s="90"/>
+      <c r="O176" s="98"/>
       <c r="P176" s="6"/>
       <c r="Q176" s="6" t="s">
         <v>18</v>
@@ -11779,7 +11778,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="177" spans="1:18" ht="15" thickBot="1">
+    <row r="177" spans="1:18" ht="15.75" thickBot="1">
       <c r="A177" s="49" t="s">
         <v>232</v>
       </c>
@@ -11789,11 +11788,11 @@
       <c r="C177" s="2">
         <v>14.1</v>
       </c>
-      <c r="D177" s="91"/>
-      <c r="E177" s="92"/>
-      <c r="F177" s="92"/>
-      <c r="G177" s="92"/>
-      <c r="H177" s="92"/>
+      <c r="D177" s="96"/>
+      <c r="E177" s="97"/>
+      <c r="F177" s="97"/>
+      <c r="G177" s="97"/>
+      <c r="H177" s="97"/>
       <c r="I177" s="6" t="s">
         <v>386</v>
       </c>
@@ -11806,7 +11805,7 @@
       </c>
       <c r="M177" s="6"/>
       <c r="N177" s="6"/>
-      <c r="O177" s="90"/>
+      <c r="O177" s="98"/>
       <c r="P177" s="6"/>
       <c r="Q177" s="6" t="s">
         <v>18</v>
@@ -11815,7 +11814,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="178" spans="1:18" ht="15" thickBot="1">
+    <row r="178" spans="1:18" ht="15.75" thickBot="1">
       <c r="A178" s="49" t="s">
         <v>232</v>
       </c>
@@ -11825,11 +11824,11 @@
       <c r="C178" s="2">
         <v>14.1</v>
       </c>
-      <c r="D178" s="91"/>
-      <c r="E178" s="92"/>
-      <c r="F178" s="92"/>
-      <c r="G178" s="92"/>
-      <c r="H178" s="92"/>
+      <c r="D178" s="96"/>
+      <c r="E178" s="97"/>
+      <c r="F178" s="97"/>
+      <c r="G178" s="97"/>
+      <c r="H178" s="97"/>
       <c r="I178" s="6" t="s">
         <v>388</v>
       </c>
@@ -11842,7 +11841,7 @@
       </c>
       <c r="M178" s="6"/>
       <c r="N178" s="6"/>
-      <c r="O178" s="90"/>
+      <c r="O178" s="98"/>
       <c r="P178" s="6"/>
       <c r="Q178" s="6" t="s">
         <v>18</v>
@@ -11851,7 +11850,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="179" spans="1:18" ht="15" thickBot="1">
+    <row r="179" spans="1:18" ht="15.75" thickBot="1">
       <c r="A179" s="49" t="s">
         <v>232</v>
       </c>
@@ -11861,11 +11860,11 @@
       <c r="C179" s="2">
         <v>14.1</v>
       </c>
-      <c r="D179" s="91"/>
-      <c r="E179" s="92"/>
-      <c r="F179" s="92"/>
-      <c r="G179" s="92"/>
-      <c r="H179" s="92"/>
+      <c r="D179" s="96"/>
+      <c r="E179" s="97"/>
+      <c r="F179" s="97"/>
+      <c r="G179" s="97"/>
+      <c r="H179" s="97"/>
       <c r="I179" s="6" t="s">
         <v>390</v>
       </c>
@@ -11878,7 +11877,7 @@
       </c>
       <c r="M179" s="6"/>
       <c r="N179" s="6"/>
-      <c r="O179" s="90"/>
+      <c r="O179" s="98"/>
       <c r="P179" s="6"/>
       <c r="Q179" s="6" t="s">
         <v>18</v>
@@ -11887,7 +11886,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="180" spans="1:18" ht="15" thickBot="1">
+    <row r="180" spans="1:18" ht="15.75" thickBot="1">
       <c r="A180" s="49" t="s">
         <v>232</v>
       </c>
@@ -11897,11 +11896,11 @@
       <c r="C180" s="2">
         <v>14.1</v>
       </c>
-      <c r="D180" s="91"/>
-      <c r="E180" s="92"/>
-      <c r="F180" s="92"/>
-      <c r="G180" s="92"/>
-      <c r="H180" s="92"/>
+      <c r="D180" s="96"/>
+      <c r="E180" s="97"/>
+      <c r="F180" s="97"/>
+      <c r="G180" s="97"/>
+      <c r="H180" s="97"/>
       <c r="I180" s="6" t="s">
         <v>392</v>
       </c>
@@ -11914,7 +11913,7 @@
       </c>
       <c r="M180" s="6"/>
       <c r="N180" s="6"/>
-      <c r="O180" s="90"/>
+      <c r="O180" s="98"/>
       <c r="P180" s="6"/>
       <c r="Q180" s="6" t="s">
         <v>18</v>
@@ -11923,7 +11922,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="181" spans="1:18" ht="15" thickBot="1">
+    <row r="181" spans="1:18" ht="15.75" thickBot="1">
       <c r="A181" s="49" t="s">
         <v>232</v>
       </c>
@@ -11933,11 +11932,11 @@
       <c r="C181" s="2">
         <v>14.1</v>
       </c>
-      <c r="D181" s="91"/>
-      <c r="E181" s="92"/>
-      <c r="F181" s="92"/>
-      <c r="G181" s="92"/>
-      <c r="H181" s="92"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="97"/>
+      <c r="F181" s="97"/>
+      <c r="G181" s="97"/>
+      <c r="H181" s="97"/>
       <c r="I181" s="6" t="s">
         <v>394</v>
       </c>
@@ -11950,7 +11949,7 @@
       </c>
       <c r="M181" s="6"/>
       <c r="N181" s="6"/>
-      <c r="O181" s="90"/>
+      <c r="O181" s="98"/>
       <c r="P181" s="6"/>
       <c r="Q181" s="6" t="s">
         <v>18</v>
@@ -11959,7 +11958,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="182" spans="1:18" ht="15" thickBot="1">
+    <row r="182" spans="1:18" ht="15.75" thickBot="1">
       <c r="A182" s="49" t="s">
         <v>232</v>
       </c>
@@ -11969,11 +11968,11 @@
       <c r="C182" s="2">
         <v>14.1</v>
       </c>
-      <c r="D182" s="91"/>
-      <c r="E182" s="92"/>
-      <c r="F182" s="92"/>
-      <c r="G182" s="92"/>
-      <c r="H182" s="92"/>
+      <c r="D182" s="96"/>
+      <c r="E182" s="97"/>
+      <c r="F182" s="97"/>
+      <c r="G182" s="97"/>
+      <c r="H182" s="97"/>
       <c r="I182" s="6" t="s">
         <v>396</v>
       </c>
@@ -11986,7 +11985,7 @@
       </c>
       <c r="M182" s="6"/>
       <c r="N182" s="6"/>
-      <c r="O182" s="90"/>
+      <c r="O182" s="98"/>
       <c r="P182" s="6"/>
       <c r="Q182" s="6" t="s">
         <v>18</v>
@@ -11995,7 +11994,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="183" spans="1:18" ht="15" thickBot="1">
+    <row r="183" spans="1:18" ht="15.75" thickBot="1">
       <c r="A183" s="49" t="s">
         <v>232</v>
       </c>
@@ -12005,11 +12004,11 @@
       <c r="C183" s="2">
         <v>14.1</v>
       </c>
-      <c r="D183" s="91"/>
-      <c r="E183" s="92"/>
-      <c r="F183" s="92"/>
-      <c r="G183" s="92"/>
-      <c r="H183" s="92"/>
+      <c r="D183" s="96"/>
+      <c r="E183" s="97"/>
+      <c r="F183" s="97"/>
+      <c r="G183" s="97"/>
+      <c r="H183" s="97"/>
       <c r="I183" s="6" t="s">
         <v>398</v>
       </c>
@@ -12022,7 +12021,7 @@
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
-      <c r="O183" s="90"/>
+      <c r="O183" s="98"/>
       <c r="P183" s="6"/>
       <c r="Q183" s="6" t="s">
         <v>18</v>
@@ -12031,7 +12030,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="184" spans="1:18" ht="15" thickBot="1">
+    <row r="184" spans="1:18" ht="15.75" thickBot="1">
       <c r="A184" s="49" t="s">
         <v>232</v>
       </c>
@@ -12041,11 +12040,11 @@
       <c r="C184" s="2">
         <v>14.1</v>
       </c>
-      <c r="D184" s="91"/>
-      <c r="E184" s="92"/>
-      <c r="F184" s="92"/>
-      <c r="G184" s="92"/>
-      <c r="H184" s="92"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="97"/>
+      <c r="F184" s="97"/>
+      <c r="G184" s="97"/>
+      <c r="H184" s="97"/>
       <c r="I184" s="6" t="s">
         <v>400</v>
       </c>
@@ -12058,7 +12057,7 @@
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
-      <c r="O184" s="90"/>
+      <c r="O184" s="98"/>
       <c r="P184" s="6"/>
       <c r="Q184" s="6" t="s">
         <v>18</v>
@@ -12067,7 +12066,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="185" spans="1:18" ht="15" thickBot="1">
+    <row r="185" spans="1:18" ht="15.75" thickBot="1">
       <c r="A185" s="49" t="s">
         <v>232</v>
       </c>
@@ -12077,11 +12076,11 @@
       <c r="C185" s="2">
         <v>14.1</v>
       </c>
-      <c r="D185" s="91"/>
-      <c r="E185" s="92"/>
-      <c r="F185" s="92"/>
-      <c r="G185" s="92"/>
-      <c r="H185" s="92"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="97"/>
+      <c r="F185" s="97"/>
+      <c r="G185" s="97"/>
+      <c r="H185" s="97"/>
       <c r="I185" s="6" t="s">
         <v>402</v>
       </c>
@@ -12094,7 +12093,7 @@
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
-      <c r="O185" s="90"/>
+      <c r="O185" s="98"/>
       <c r="P185" s="6"/>
       <c r="Q185" s="6" t="s">
         <v>18</v>
@@ -12103,7 +12102,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="186" spans="1:18" ht="15" thickBot="1">
+    <row r="186" spans="1:18" ht="15.75" thickBot="1">
       <c r="A186" s="49" t="s">
         <v>232</v>
       </c>
@@ -12113,11 +12112,11 @@
       <c r="C186" s="2">
         <v>14.1</v>
       </c>
-      <c r="D186" s="91"/>
-      <c r="E186" s="92"/>
-      <c r="F186" s="92"/>
-      <c r="G186" s="92"/>
-      <c r="H186" s="92"/>
+      <c r="D186" s="96"/>
+      <c r="E186" s="97"/>
+      <c r="F186" s="97"/>
+      <c r="G186" s="97"/>
+      <c r="H186" s="97"/>
       <c r="I186" s="6" t="s">
         <v>404</v>
       </c>
@@ -12130,7 +12129,7 @@
       </c>
       <c r="M186" s="6"/>
       <c r="N186" s="6"/>
-      <c r="O186" s="90"/>
+      <c r="O186" s="98"/>
       <c r="P186" s="6"/>
       <c r="Q186" s="6" t="s">
         <v>18</v>
@@ -12139,7 +12138,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="187" spans="1:18" ht="15" thickBot="1">
+    <row r="187" spans="1:18" ht="15.75" thickBot="1">
       <c r="A187" s="49" t="s">
         <v>232</v>
       </c>
@@ -12149,11 +12148,11 @@
       <c r="C187" s="2">
         <v>14.1</v>
       </c>
-      <c r="D187" s="91"/>
-      <c r="E187" s="92"/>
-      <c r="F187" s="92"/>
-      <c r="G187" s="92"/>
-      <c r="H187" s="92"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="97"/>
+      <c r="F187" s="97"/>
+      <c r="G187" s="97"/>
+      <c r="H187" s="97"/>
       <c r="I187" s="6" t="s">
         <v>406</v>
       </c>
@@ -12166,7 +12165,7 @@
       </c>
       <c r="M187" s="6"/>
       <c r="N187" s="6"/>
-      <c r="O187" s="90"/>
+      <c r="O187" s="98"/>
       <c r="P187" s="6"/>
       <c r="Q187" s="6" t="s">
         <v>18</v>
@@ -12185,11 +12184,11 @@
       <c r="C188" s="2">
         <v>14.1</v>
       </c>
-      <c r="D188" s="91"/>
-      <c r="E188" s="92"/>
-      <c r="F188" s="92"/>
-      <c r="G188" s="92"/>
-      <c r="H188" s="92"/>
+      <c r="D188" s="96"/>
+      <c r="E188" s="97"/>
+      <c r="F188" s="97"/>
+      <c r="G188" s="97"/>
+      <c r="H188" s="97"/>
       <c r="I188" s="6" t="s">
         <v>408</v>
       </c>
@@ -12202,7 +12201,7 @@
       </c>
       <c r="M188" s="6"/>
       <c r="N188" s="6"/>
-      <c r="O188" s="90"/>
+      <c r="O188" s="98"/>
       <c r="P188" s="6"/>
       <c r="Q188" s="6" t="s">
         <v>18</v>
@@ -12211,7 +12210,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="189" spans="1:18" ht="15" thickBot="1">
+    <row r="189" spans="1:18" ht="15.75" thickBot="1">
       <c r="A189" s="49" t="s">
         <v>232</v>
       </c>
@@ -12221,11 +12220,11 @@
       <c r="C189" s="2">
         <v>14.1</v>
       </c>
-      <c r="D189" s="91"/>
-      <c r="E189" s="92"/>
-      <c r="F189" s="92"/>
-      <c r="G189" s="92"/>
-      <c r="H189" s="92"/>
+      <c r="D189" s="96"/>
+      <c r="E189" s="97"/>
+      <c r="F189" s="97"/>
+      <c r="G189" s="97"/>
+      <c r="H189" s="97"/>
       <c r="I189" s="6" t="s">
         <v>410</v>
       </c>
@@ -12238,7 +12237,7 @@
       </c>
       <c r="M189" s="6"/>
       <c r="N189" s="6"/>
-      <c r="O189" s="90"/>
+      <c r="O189" s="98"/>
       <c r="P189" s="6"/>
       <c r="Q189" s="6" t="s">
         <v>18</v>
@@ -12247,7 +12246,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="190" spans="1:18" ht="15" thickBot="1">
+    <row r="190" spans="1:18" ht="15.75" thickBot="1">
       <c r="A190" s="49" t="s">
         <v>232</v>
       </c>
@@ -12257,11 +12256,11 @@
       <c r="C190" s="2">
         <v>14.1</v>
       </c>
-      <c r="D190" s="91"/>
-      <c r="E190" s="92"/>
-      <c r="F190" s="92"/>
-      <c r="G190" s="92"/>
-      <c r="H190" s="92"/>
+      <c r="D190" s="96"/>
+      <c r="E190" s="97"/>
+      <c r="F190" s="97"/>
+      <c r="G190" s="97"/>
+      <c r="H190" s="97"/>
       <c r="I190" s="6" t="s">
         <v>412</v>
       </c>
@@ -12274,7 +12273,7 @@
       </c>
       <c r="M190" s="6"/>
       <c r="N190" s="6"/>
-      <c r="O190" s="90"/>
+      <c r="O190" s="98"/>
       <c r="P190" s="6"/>
       <c r="Q190" s="6" t="s">
         <v>18</v>
@@ -12283,7 +12282,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="191" spans="1:18" ht="15" thickBot="1">
+    <row r="191" spans="1:18" ht="30.75" thickBot="1">
       <c r="A191" s="49" t="s">
         <v>232</v>
       </c>
@@ -12293,11 +12292,11 @@
       <c r="C191" s="2">
         <v>14.1</v>
       </c>
-      <c r="D191" s="91"/>
-      <c r="E191" s="92"/>
-      <c r="F191" s="92"/>
-      <c r="G191" s="92"/>
-      <c r="H191" s="92"/>
+      <c r="D191" s="96"/>
+      <c r="E191" s="97"/>
+      <c r="F191" s="97"/>
+      <c r="G191" s="97"/>
+      <c r="H191" s="97"/>
       <c r="I191" s="6" t="s">
         <v>414</v>
       </c>
@@ -12310,7 +12309,7 @@
       </c>
       <c r="M191" s="6"/>
       <c r="N191" s="6"/>
-      <c r="O191" s="90"/>
+      <c r="O191" s="98"/>
       <c r="P191" s="6"/>
       <c r="Q191" s="6" t="s">
         <v>18</v>
@@ -12319,7 +12318,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="192" spans="1:18" ht="15" thickBot="1">
+    <row r="192" spans="1:18" ht="30.75" thickBot="1">
       <c r="A192" s="49" t="s">
         <v>232</v>
       </c>
@@ -12329,11 +12328,11 @@
       <c r="C192" s="2">
         <v>14.1</v>
       </c>
-      <c r="D192" s="91"/>
-      <c r="E192" s="92"/>
-      <c r="F192" s="92"/>
-      <c r="G192" s="92"/>
-      <c r="H192" s="92"/>
+      <c r="D192" s="96"/>
+      <c r="E192" s="97"/>
+      <c r="F192" s="97"/>
+      <c r="G192" s="97"/>
+      <c r="H192" s="97"/>
       <c r="I192" s="6" t="s">
         <v>416</v>
       </c>
@@ -12346,7 +12345,7 @@
       </c>
       <c r="M192" s="6"/>
       <c r="N192" s="6"/>
-      <c r="O192" s="90"/>
+      <c r="O192" s="98"/>
       <c r="P192" s="6"/>
       <c r="Q192" s="6" t="s">
         <v>18</v>
@@ -12355,7 +12354,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="193" spans="1:18" ht="15" thickBot="1">
+    <row r="193" spans="1:18" ht="15.75" thickBot="1">
       <c r="A193" s="49" t="s">
         <v>232</v>
       </c>
@@ -12365,11 +12364,11 @@
       <c r="C193" s="2">
         <v>14.1</v>
       </c>
-      <c r="D193" s="91"/>
-      <c r="E193" s="92"/>
-      <c r="F193" s="92"/>
-      <c r="G193" s="92"/>
-      <c r="H193" s="92"/>
+      <c r="D193" s="96"/>
+      <c r="E193" s="97"/>
+      <c r="F193" s="97"/>
+      <c r="G193" s="97"/>
+      <c r="H193" s="97"/>
       <c r="I193" s="6" t="s">
         <v>418</v>
       </c>
@@ -12382,7 +12381,7 @@
       </c>
       <c r="M193" s="6"/>
       <c r="N193" s="6"/>
-      <c r="O193" s="90"/>
+      <c r="O193" s="98"/>
       <c r="P193" s="6"/>
       <c r="Q193" s="6" t="s">
         <v>18</v>
@@ -12391,7 +12390,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="194" spans="1:18" ht="15" thickBot="1">
+    <row r="194" spans="1:18" ht="15.75" thickBot="1">
       <c r="A194" s="49" t="s">
         <v>232</v>
       </c>
@@ -12401,11 +12400,11 @@
       <c r="C194" s="2">
         <v>14.1</v>
       </c>
-      <c r="D194" s="91"/>
-      <c r="E194" s="92"/>
-      <c r="F194" s="92"/>
-      <c r="G194" s="92"/>
-      <c r="H194" s="92"/>
+      <c r="D194" s="96"/>
+      <c r="E194" s="97"/>
+      <c r="F194" s="97"/>
+      <c r="G194" s="97"/>
+      <c r="H194" s="97"/>
       <c r="I194" s="6" t="s">
         <v>420</v>
       </c>
@@ -12418,7 +12417,7 @@
       </c>
       <c r="M194" s="6"/>
       <c r="N194" s="6"/>
-      <c r="O194" s="90"/>
+      <c r="O194" s="98"/>
       <c r="P194" s="6"/>
       <c r="Q194" s="6" t="s">
         <v>18</v>
@@ -12427,7 +12426,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="195" spans="1:18" ht="15" thickBot="1">
+    <row r="195" spans="1:18" ht="15.75" thickBot="1">
       <c r="A195" s="49" t="s">
         <v>232</v>
       </c>
@@ -12437,11 +12436,11 @@
       <c r="C195" s="2">
         <v>14.1</v>
       </c>
-      <c r="D195" s="91"/>
-      <c r="E195" s="92"/>
-      <c r="F195" s="92"/>
-      <c r="G195" s="92"/>
-      <c r="H195" s="92"/>
+      <c r="D195" s="96"/>
+      <c r="E195" s="97"/>
+      <c r="F195" s="97"/>
+      <c r="G195" s="97"/>
+      <c r="H195" s="97"/>
       <c r="I195" s="6" t="s">
         <v>422</v>
       </c>
@@ -12454,7 +12453,7 @@
       </c>
       <c r="M195" s="6"/>
       <c r="N195" s="6"/>
-      <c r="O195" s="90"/>
+      <c r="O195" s="98"/>
       <c r="P195" s="6"/>
       <c r="Q195" s="6" t="s">
         <v>18</v>
@@ -12463,7 +12462,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="196" spans="1:18" ht="15" thickBot="1">
+    <row r="196" spans="1:18" ht="15.75" thickBot="1">
       <c r="A196" s="49" t="s">
         <v>232</v>
       </c>
@@ -12473,11 +12472,11 @@
       <c r="C196" s="2">
         <v>14.1</v>
       </c>
-      <c r="D196" s="91"/>
-      <c r="E196" s="92"/>
-      <c r="F196" s="92"/>
-      <c r="G196" s="92"/>
-      <c r="H196" s="92"/>
+      <c r="D196" s="96"/>
+      <c r="E196" s="97"/>
+      <c r="F196" s="97"/>
+      <c r="G196" s="97"/>
+      <c r="H196" s="97"/>
       <c r="I196" s="6" t="s">
         <v>424</v>
       </c>
@@ -12490,7 +12489,7 @@
       </c>
       <c r="M196" s="6"/>
       <c r="N196" s="6"/>
-      <c r="O196" s="90"/>
+      <c r="O196" s="98"/>
       <c r="P196" s="6"/>
       <c r="Q196" s="6" t="s">
         <v>18</v>
@@ -12499,7 +12498,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="197" spans="1:18" ht="15" thickBot="1">
+    <row r="197" spans="1:18" ht="15.75" thickBot="1">
       <c r="A197" s="49" t="s">
         <v>232</v>
       </c>
@@ -12509,11 +12508,11 @@
       <c r="C197" s="2">
         <v>14.1</v>
       </c>
-      <c r="D197" s="91"/>
-      <c r="E197" s="92"/>
-      <c r="F197" s="92"/>
-      <c r="G197" s="92"/>
-      <c r="H197" s="92"/>
+      <c r="D197" s="96"/>
+      <c r="E197" s="97"/>
+      <c r="F197" s="97"/>
+      <c r="G197" s="97"/>
+      <c r="H197" s="97"/>
       <c r="I197" s="6" t="s">
         <v>426</v>
       </c>
@@ -12526,7 +12525,7 @@
       </c>
       <c r="M197" s="6"/>
       <c r="N197" s="6"/>
-      <c r="O197" s="90"/>
+      <c r="O197" s="98"/>
       <c r="P197" s="6"/>
       <c r="Q197" s="6" t="s">
         <v>18</v>
@@ -12535,7 +12534,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="198" spans="1:18" ht="15" thickBot="1">
+    <row r="198" spans="1:18" ht="15.75" thickBot="1">
       <c r="A198" s="49" t="s">
         <v>232</v>
       </c>
@@ -12545,11 +12544,11 @@
       <c r="C198" s="2">
         <v>14.1</v>
       </c>
-      <c r="D198" s="91"/>
-      <c r="E198" s="92"/>
-      <c r="F198" s="92"/>
-      <c r="G198" s="92"/>
-      <c r="H198" s="92"/>
+      <c r="D198" s="96"/>
+      <c r="E198" s="97"/>
+      <c r="F198" s="97"/>
+      <c r="G198" s="97"/>
+      <c r="H198" s="97"/>
       <c r="I198" s="6" t="s">
         <v>428</v>
       </c>
@@ -12562,7 +12561,7 @@
       </c>
       <c r="M198" s="6"/>
       <c r="N198" s="6"/>
-      <c r="O198" s="90"/>
+      <c r="O198" s="98"/>
       <c r="P198" s="6"/>
       <c r="Q198" s="6" t="s">
         <v>18</v>
@@ -12571,7 +12570,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="199" spans="1:18" ht="15" thickBot="1">
+    <row r="199" spans="1:18" ht="15.75" thickBot="1">
       <c r="A199" s="49" t="s">
         <v>232</v>
       </c>
@@ -12581,11 +12580,11 @@
       <c r="C199" s="2">
         <v>14.1</v>
       </c>
-      <c r="D199" s="91"/>
-      <c r="E199" s="92"/>
-      <c r="F199" s="92"/>
-      <c r="G199" s="92"/>
-      <c r="H199" s="92"/>
+      <c r="D199" s="96"/>
+      <c r="E199" s="97"/>
+      <c r="F199" s="97"/>
+      <c r="G199" s="97"/>
+      <c r="H199" s="97"/>
       <c r="I199" s="6" t="s">
         <v>430</v>
       </c>
@@ -12598,7 +12597,7 @@
       </c>
       <c r="M199" s="6"/>
       <c r="N199" s="6"/>
-      <c r="O199" s="90"/>
+      <c r="O199" s="98"/>
       <c r="P199" s="6"/>
       <c r="Q199" s="6" t="s">
         <v>18</v>
@@ -12607,7 +12606,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="200" spans="1:18" ht="15" thickBot="1">
+    <row r="200" spans="1:18" ht="30.75" thickBot="1">
       <c r="A200" s="49" t="s">
         <v>232</v>
       </c>
@@ -12617,11 +12616,11 @@
       <c r="C200" s="2">
         <v>14.1</v>
       </c>
-      <c r="D200" s="91"/>
-      <c r="E200" s="92"/>
-      <c r="F200" s="92"/>
-      <c r="G200" s="92"/>
-      <c r="H200" s="92"/>
+      <c r="D200" s="96"/>
+      <c r="E200" s="97"/>
+      <c r="F200" s="97"/>
+      <c r="G200" s="97"/>
+      <c r="H200" s="97"/>
       <c r="I200" s="6" t="s">
         <v>432</v>
       </c>
@@ -12634,7 +12633,7 @@
       </c>
       <c r="M200" s="6"/>
       <c r="N200" s="6"/>
-      <c r="O200" s="90"/>
+      <c r="O200" s="98"/>
       <c r="P200" s="6"/>
       <c r="Q200" s="6" t="s">
         <v>18</v>
@@ -12643,7 +12642,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="201" spans="1:18" ht="15" thickBot="1">
+    <row r="201" spans="1:18" ht="15.75" thickBot="1">
       <c r="A201" s="49" t="s">
         <v>232</v>
       </c>
@@ -12653,11 +12652,11 @@
       <c r="C201" s="2">
         <v>14.1</v>
       </c>
-      <c r="D201" s="91"/>
-      <c r="E201" s="92"/>
-      <c r="F201" s="92"/>
-      <c r="G201" s="92"/>
-      <c r="H201" s="92"/>
+      <c r="D201" s="96"/>
+      <c r="E201" s="97"/>
+      <c r="F201" s="97"/>
+      <c r="G201" s="97"/>
+      <c r="H201" s="97"/>
       <c r="I201" s="6" t="s">
         <v>434</v>
       </c>
@@ -12670,7 +12669,7 @@
       </c>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
-      <c r="O201" s="90"/>
+      <c r="O201" s="98"/>
       <c r="P201" s="6"/>
       <c r="Q201" s="6" t="s">
         <v>18</v>
@@ -12679,7 +12678,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="202" spans="1:18" ht="15" thickBot="1">
+    <row r="202" spans="1:18" ht="15.75" thickBot="1">
       <c r="A202" s="49" t="s">
         <v>232</v>
       </c>
@@ -12689,11 +12688,11 @@
       <c r="C202" s="2">
         <v>14.1</v>
       </c>
-      <c r="D202" s="91"/>
-      <c r="E202" s="92"/>
-      <c r="F202" s="92"/>
-      <c r="G202" s="92"/>
-      <c r="H202" s="92"/>
+      <c r="D202" s="96"/>
+      <c r="E202" s="97"/>
+      <c r="F202" s="97"/>
+      <c r="G202" s="97"/>
+      <c r="H202" s="97"/>
       <c r="I202" s="6" t="s">
         <v>436</v>
       </c>
@@ -12706,7 +12705,7 @@
       </c>
       <c r="M202" s="6"/>
       <c r="N202" s="6"/>
-      <c r="O202" s="90"/>
+      <c r="O202" s="98"/>
       <c r="P202" s="6"/>
       <c r="Q202" s="6" t="s">
         <v>18</v>
@@ -12715,7 +12714,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="203" spans="1:18" ht="15" thickBot="1">
+    <row r="203" spans="1:18" ht="15.75" thickBot="1">
       <c r="A203" s="49" t="s">
         <v>232</v>
       </c>
@@ -12725,11 +12724,11 @@
       <c r="C203" s="2">
         <v>14.1</v>
       </c>
-      <c r="D203" s="91"/>
-      <c r="E203" s="92"/>
-      <c r="F203" s="92"/>
-      <c r="G203" s="92"/>
-      <c r="H203" s="92"/>
+      <c r="D203" s="96"/>
+      <c r="E203" s="97"/>
+      <c r="F203" s="97"/>
+      <c r="G203" s="97"/>
+      <c r="H203" s="97"/>
       <c r="I203" s="6" t="s">
         <v>438</v>
       </c>
@@ -12742,7 +12741,7 @@
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
-      <c r="O203" s="90"/>
+      <c r="O203" s="98"/>
       <c r="P203" s="6"/>
       <c r="Q203" s="6" t="s">
         <v>18</v>
@@ -12751,7 +12750,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="204" spans="1:18" ht="15" thickBot="1">
+    <row r="204" spans="1:18" ht="15.75" thickBot="1">
       <c r="A204" s="49" t="s">
         <v>232</v>
       </c>
@@ -12761,11 +12760,11 @@
       <c r="C204" s="2">
         <v>14.1</v>
       </c>
-      <c r="D204" s="91"/>
-      <c r="E204" s="92"/>
-      <c r="F204" s="92"/>
-      <c r="G204" s="92"/>
-      <c r="H204" s="92"/>
+      <c r="D204" s="96"/>
+      <c r="E204" s="97"/>
+      <c r="F204" s="97"/>
+      <c r="G204" s="97"/>
+      <c r="H204" s="97"/>
       <c r="I204" s="6" t="s">
         <v>440</v>
       </c>
@@ -12778,7 +12777,7 @@
       </c>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
-      <c r="O204" s="90"/>
+      <c r="O204" s="98"/>
       <c r="P204" s="6"/>
       <c r="Q204" s="6" t="s">
         <v>18</v>
@@ -12787,7 +12786,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="205" spans="1:18" ht="29.4" thickBot="1">
+    <row r="205" spans="1:18" ht="30.75" thickBot="1">
       <c r="A205" s="49" t="s">
         <v>232</v>
       </c>
@@ -12797,11 +12796,11 @@
       <c r="C205" s="2">
         <v>14.1</v>
       </c>
-      <c r="D205" s="91"/>
-      <c r="E205" s="92"/>
-      <c r="F205" s="92"/>
-      <c r="G205" s="92"/>
-      <c r="H205" s="92"/>
+      <c r="D205" s="96"/>
+      <c r="E205" s="97"/>
+      <c r="F205" s="97"/>
+      <c r="G205" s="97"/>
+      <c r="H205" s="97"/>
       <c r="I205" s="6" t="s">
         <v>442</v>
       </c>
@@ -12814,7 +12813,7 @@
       </c>
       <c r="M205" s="6"/>
       <c r="N205" s="6"/>
-      <c r="O205" s="90"/>
+      <c r="O205" s="98"/>
       <c r="P205" s="6"/>
       <c r="Q205" s="6" t="s">
         <v>18</v>
@@ -12823,7 +12822,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="206" spans="1:18" ht="15" thickBot="1">
+    <row r="206" spans="1:18" ht="15.75" thickBot="1">
       <c r="A206" s="49" t="s">
         <v>232</v>
       </c>
@@ -12833,11 +12832,11 @@
       <c r="C206" s="2">
         <v>14.1</v>
       </c>
-      <c r="D206" s="91"/>
-      <c r="E206" s="92"/>
-      <c r="F206" s="92"/>
-      <c r="G206" s="92"/>
-      <c r="H206" s="92"/>
+      <c r="D206" s="96"/>
+      <c r="E206" s="97"/>
+      <c r="F206" s="97"/>
+      <c r="G206" s="97"/>
+      <c r="H206" s="97"/>
       <c r="I206" s="6" t="s">
         <v>444</v>
       </c>
@@ -12850,7 +12849,7 @@
       </c>
       <c r="M206" s="6"/>
       <c r="N206" s="6"/>
-      <c r="O206" s="90"/>
+      <c r="O206" s="98"/>
       <c r="P206" s="6"/>
       <c r="Q206" s="6" t="s">
         <v>18</v>
@@ -12859,7 +12858,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="207" spans="1:18" ht="15" thickBot="1">
+    <row r="207" spans="1:18" ht="30.75" thickBot="1">
       <c r="A207" s="49" t="s">
         <v>232</v>
       </c>
@@ -12869,11 +12868,11 @@
       <c r="C207" s="2">
         <v>14.1</v>
       </c>
-      <c r="D207" s="91"/>
-      <c r="E207" s="92"/>
-      <c r="F207" s="92"/>
-      <c r="G207" s="92"/>
-      <c r="H207" s="92"/>
+      <c r="D207" s="96"/>
+      <c r="E207" s="97"/>
+      <c r="F207" s="97"/>
+      <c r="G207" s="97"/>
+      <c r="H207" s="97"/>
       <c r="I207" s="6" t="s">
         <v>446</v>
       </c>
@@ -12886,7 +12885,7 @@
       </c>
       <c r="M207" s="6"/>
       <c r="N207" s="6"/>
-      <c r="O207" s="90"/>
+      <c r="O207" s="98"/>
       <c r="P207" s="6"/>
       <c r="Q207" s="6" t="s">
         <v>18</v>
@@ -12895,7 +12894,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="208" spans="1:18" ht="15" thickBot="1">
+    <row r="208" spans="1:18" ht="15.75" thickBot="1">
       <c r="A208" s="49" t="s">
         <v>232</v>
       </c>
@@ -12905,11 +12904,11 @@
       <c r="C208" s="2">
         <v>14.1</v>
       </c>
-      <c r="D208" s="91"/>
-      <c r="E208" s="92"/>
-      <c r="F208" s="92"/>
-      <c r="G208" s="92"/>
-      <c r="H208" s="92"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="97"/>
+      <c r="F208" s="97"/>
+      <c r="G208" s="97"/>
+      <c r="H208" s="97"/>
       <c r="I208" s="6" t="s">
         <v>448</v>
       </c>
@@ -12922,7 +12921,7 @@
       </c>
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
-      <c r="O208" s="90"/>
+      <c r="O208" s="98"/>
       <c r="P208" s="6"/>
       <c r="Q208" s="6" t="s">
         <v>18</v>
@@ -12931,7 +12930,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="209" spans="1:18" ht="15" thickBot="1">
+    <row r="209" spans="1:18" ht="15.75" thickBot="1">
       <c r="A209" s="49" t="s">
         <v>232</v>
       </c>
@@ -12941,11 +12940,11 @@
       <c r="C209" s="2">
         <v>14.1</v>
       </c>
-      <c r="D209" s="91"/>
-      <c r="E209" s="92"/>
-      <c r="F209" s="92"/>
-      <c r="G209" s="92"/>
-      <c r="H209" s="92"/>
+      <c r="D209" s="96"/>
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
+      <c r="G209" s="97"/>
+      <c r="H209" s="97"/>
       <c r="I209" s="6" t="s">
         <v>450</v>
       </c>
@@ -12958,7 +12957,7 @@
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
-      <c r="O209" s="90"/>
+      <c r="O209" s="98"/>
       <c r="P209" s="6"/>
       <c r="Q209" s="6" t="s">
         <v>18</v>
@@ -12967,7 +12966,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="210" spans="1:18" ht="15" thickBot="1">
+    <row r="210" spans="1:18" ht="15.75" thickBot="1">
       <c r="A210" s="49" t="s">
         <v>232</v>
       </c>
@@ -12977,11 +12976,11 @@
       <c r="C210" s="2">
         <v>14.1</v>
       </c>
-      <c r="D210" s="91"/>
-      <c r="E210" s="92"/>
-      <c r="F210" s="92"/>
-      <c r="G210" s="92"/>
-      <c r="H210" s="92"/>
+      <c r="D210" s="96"/>
+      <c r="E210" s="97"/>
+      <c r="F210" s="97"/>
+      <c r="G210" s="97"/>
+      <c r="H210" s="97"/>
       <c r="I210" s="6" t="s">
         <v>452</v>
       </c>
@@ -12994,7 +12993,7 @@
       </c>
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
-      <c r="O210" s="90"/>
+      <c r="O210" s="98"/>
       <c r="P210" s="6"/>
       <c r="Q210" s="6" t="s">
         <v>18</v>
@@ -13003,7 +13002,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="211" spans="1:18" ht="15" thickBot="1">
+    <row r="211" spans="1:18" ht="15.75" thickBot="1">
       <c r="A211" s="49" t="s">
         <v>232</v>
       </c>
@@ -13013,11 +13012,11 @@
       <c r="C211" s="2">
         <v>14.1</v>
       </c>
-      <c r="D211" s="91"/>
-      <c r="E211" s="92"/>
-      <c r="F211" s="92"/>
-      <c r="G211" s="92"/>
-      <c r="H211" s="92"/>
+      <c r="D211" s="96"/>
+      <c r="E211" s="97"/>
+      <c r="F211" s="97"/>
+      <c r="G211" s="97"/>
+      <c r="H211" s="97"/>
       <c r="I211" s="6" t="s">
         <v>454</v>
       </c>
@@ -13030,7 +13029,7 @@
       </c>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
-      <c r="O211" s="90"/>
+      <c r="O211" s="98"/>
       <c r="P211" s="6"/>
       <c r="Q211" s="6" t="s">
         <v>18</v>
@@ -13039,7 +13038,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="212" spans="1:18" ht="15" thickBot="1">
+    <row r="212" spans="1:18" ht="15.75" thickBot="1">
       <c r="A212" s="49" t="s">
         <v>232</v>
       </c>
@@ -13049,11 +13048,11 @@
       <c r="C212" s="2">
         <v>14.1</v>
       </c>
-      <c r="D212" s="91"/>
-      <c r="E212" s="92"/>
-      <c r="F212" s="92"/>
-      <c r="G212" s="92"/>
-      <c r="H212" s="92"/>
+      <c r="D212" s="96"/>
+      <c r="E212" s="97"/>
+      <c r="F212" s="97"/>
+      <c r="G212" s="97"/>
+      <c r="H212" s="97"/>
       <c r="I212" s="6" t="s">
         <v>456</v>
       </c>
@@ -13066,7 +13065,7 @@
       </c>
       <c r="M212" s="6"/>
       <c r="N212" s="6"/>
-      <c r="O212" s="90"/>
+      <c r="O212" s="98"/>
       <c r="P212" s="6"/>
       <c r="Q212" s="6" t="s">
         <v>18</v>
@@ -13075,7 +13074,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="213" spans="1:18" ht="15" thickBot="1">
+    <row r="213" spans="1:18" ht="15.75" thickBot="1">
       <c r="A213" s="49" t="s">
         <v>232</v>
       </c>
@@ -13085,11 +13084,11 @@
       <c r="C213" s="2">
         <v>14.1</v>
       </c>
-      <c r="D213" s="91"/>
-      <c r="E213" s="92"/>
-      <c r="F213" s="92"/>
-      <c r="G213" s="92"/>
-      <c r="H213" s="92"/>
+      <c r="D213" s="96"/>
+      <c r="E213" s="97"/>
+      <c r="F213" s="97"/>
+      <c r="G213" s="97"/>
+      <c r="H213" s="97"/>
       <c r="I213" s="6" t="s">
         <v>458</v>
       </c>
@@ -13102,7 +13101,7 @@
       </c>
       <c r="M213" s="6"/>
       <c r="N213" s="6"/>
-      <c r="O213" s="90"/>
+      <c r="O213" s="98"/>
       <c r="P213" s="6"/>
       <c r="Q213" s="6" t="s">
         <v>18</v>
@@ -13111,7 +13110,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="214" spans="1:18" ht="15" thickBot="1">
+    <row r="214" spans="1:18" ht="15.75" thickBot="1">
       <c r="A214" s="49" t="s">
         <v>232</v>
       </c>
@@ -13121,11 +13120,11 @@
       <c r="C214" s="2">
         <v>14.1</v>
       </c>
-      <c r="D214" s="91"/>
-      <c r="E214" s="92"/>
-      <c r="F214" s="92"/>
-      <c r="G214" s="92"/>
-      <c r="H214" s="92"/>
+      <c r="D214" s="96"/>
+      <c r="E214" s="97"/>
+      <c r="F214" s="97"/>
+      <c r="G214" s="97"/>
+      <c r="H214" s="97"/>
       <c r="I214" s="6" t="s">
         <v>460</v>
       </c>
@@ -13138,7 +13137,7 @@
       </c>
       <c r="M214" s="6"/>
       <c r="N214" s="6"/>
-      <c r="O214" s="90"/>
+      <c r="O214" s="98"/>
       <c r="P214" s="6"/>
       <c r="Q214" s="6" t="s">
         <v>18</v>
@@ -13147,7 +13146,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="215" spans="1:18" ht="15" thickBot="1">
+    <row r="215" spans="1:18" ht="15.75" thickBot="1">
       <c r="A215" s="49" t="s">
         <v>232</v>
       </c>
@@ -13157,11 +13156,11 @@
       <c r="C215" s="2">
         <v>14.1</v>
       </c>
-      <c r="D215" s="91"/>
-      <c r="E215" s="92"/>
-      <c r="F215" s="92"/>
-      <c r="G215" s="92"/>
-      <c r="H215" s="92"/>
+      <c r="D215" s="96"/>
+      <c r="E215" s="97"/>
+      <c r="F215" s="97"/>
+      <c r="G215" s="97"/>
+      <c r="H215" s="97"/>
       <c r="I215" s="6" t="s">
         <v>462</v>
       </c>
@@ -13174,7 +13173,7 @@
       </c>
       <c r="M215" s="6"/>
       <c r="N215" s="6"/>
-      <c r="O215" s="90"/>
+      <c r="O215" s="98"/>
       <c r="P215" s="6"/>
       <c r="Q215" s="6" t="s">
         <v>18</v>
@@ -13183,7 +13182,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="216" spans="1:18" ht="15" thickBot="1">
+    <row r="216" spans="1:18" ht="15.75" thickBot="1">
       <c r="A216" s="49" t="s">
         <v>232</v>
       </c>
@@ -13193,11 +13192,11 @@
       <c r="C216" s="2">
         <v>14.1</v>
       </c>
-      <c r="D216" s="91"/>
-      <c r="E216" s="92"/>
-      <c r="F216" s="92"/>
-      <c r="G216" s="92"/>
-      <c r="H216" s="92"/>
+      <c r="D216" s="96"/>
+      <c r="E216" s="97"/>
+      <c r="F216" s="97"/>
+      <c r="G216" s="97"/>
+      <c r="H216" s="97"/>
       <c r="I216" s="6" t="s">
         <v>464</v>
       </c>
@@ -13210,7 +13209,7 @@
       </c>
       <c r="M216" s="6"/>
       <c r="N216" s="6"/>
-      <c r="O216" s="90"/>
+      <c r="O216" s="98"/>
       <c r="P216" s="6"/>
       <c r="Q216" s="6" t="s">
         <v>18</v>
@@ -13219,7 +13218,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="217" spans="1:18" ht="15" thickBot="1">
+    <row r="217" spans="1:18" ht="15.75" thickBot="1">
       <c r="A217" s="49" t="s">
         <v>232</v>
       </c>
@@ -13229,11 +13228,11 @@
       <c r="C217" s="2">
         <v>14.1</v>
       </c>
-      <c r="D217" s="91"/>
-      <c r="E217" s="92"/>
-      <c r="F217" s="92"/>
-      <c r="G217" s="92"/>
-      <c r="H217" s="92"/>
+      <c r="D217" s="96"/>
+      <c r="E217" s="97"/>
+      <c r="F217" s="97"/>
+      <c r="G217" s="97"/>
+      <c r="H217" s="97"/>
       <c r="I217" s="6" t="s">
         <v>466</v>
       </c>
@@ -13246,7 +13245,7 @@
       </c>
       <c r="M217" s="6"/>
       <c r="N217" s="6"/>
-      <c r="O217" s="90"/>
+      <c r="O217" s="98"/>
       <c r="P217" s="6"/>
       <c r="Q217" s="6" t="s">
         <v>18</v>
@@ -13255,7 +13254,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="218" spans="1:18" ht="15" thickBot="1">
+    <row r="218" spans="1:18" ht="15.75" thickBot="1">
       <c r="A218" s="49" t="s">
         <v>232</v>
       </c>
@@ -13265,11 +13264,11 @@
       <c r="C218" s="2">
         <v>14.1</v>
       </c>
-      <c r="D218" s="91"/>
-      <c r="E218" s="92"/>
-      <c r="F218" s="92"/>
-      <c r="G218" s="92"/>
-      <c r="H218" s="92"/>
+      <c r="D218" s="96"/>
+      <c r="E218" s="97"/>
+      <c r="F218" s="97"/>
+      <c r="G218" s="97"/>
+      <c r="H218" s="97"/>
       <c r="I218" s="6" t="s">
         <v>466</v>
       </c>
@@ -13282,7 +13281,7 @@
       </c>
       <c r="M218" s="6"/>
       <c r="N218" s="6"/>
-      <c r="O218" s="90"/>
+      <c r="O218" s="98"/>
       <c r="P218" s="6"/>
       <c r="Q218" s="6" t="s">
         <v>18</v>
@@ -13291,7 +13290,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="219" spans="1:18" ht="15" thickBot="1">
+    <row r="219" spans="1:18" ht="15.75" thickBot="1">
       <c r="A219" s="49" t="s">
         <v>232</v>
       </c>
@@ -13301,11 +13300,11 @@
       <c r="C219" s="2">
         <v>14.1</v>
       </c>
-      <c r="D219" s="91"/>
-      <c r="E219" s="92"/>
-      <c r="F219" s="92"/>
-      <c r="G219" s="92"/>
-      <c r="H219" s="92"/>
+      <c r="D219" s="96"/>
+      <c r="E219" s="97"/>
+      <c r="F219" s="97"/>
+      <c r="G219" s="97"/>
+      <c r="H219" s="97"/>
       <c r="I219" s="6" t="s">
         <v>469</v>
       </c>
@@ -13318,7 +13317,7 @@
       </c>
       <c r="M219" s="6"/>
       <c r="N219" s="6"/>
-      <c r="O219" s="90"/>
+      <c r="O219" s="98"/>
       <c r="P219" s="6"/>
       <c r="Q219" s="6" t="s">
         <v>18</v>
@@ -13327,7 +13326,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="220" spans="1:18" ht="15" thickBot="1">
+    <row r="220" spans="1:18" ht="15.75" thickBot="1">
       <c r="A220" s="49" t="s">
         <v>232</v>
       </c>
@@ -13337,11 +13336,11 @@
       <c r="C220" s="2">
         <v>14.1</v>
       </c>
-      <c r="D220" s="91"/>
-      <c r="E220" s="92"/>
-      <c r="F220" s="92"/>
-      <c r="G220" s="92"/>
-      <c r="H220" s="92"/>
+      <c r="D220" s="96"/>
+      <c r="E220" s="97"/>
+      <c r="F220" s="97"/>
+      <c r="G220" s="97"/>
+      <c r="H220" s="97"/>
       <c r="I220" s="6" t="s">
         <v>469</v>
       </c>
@@ -13354,7 +13353,7 @@
       </c>
       <c r="M220" s="6"/>
       <c r="N220" s="6"/>
-      <c r="O220" s="90"/>
+      <c r="O220" s="98"/>
       <c r="P220" s="6"/>
       <c r="Q220" s="6" t="s">
         <v>18</v>
@@ -13363,7 +13362,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="221" spans="1:18" ht="15" thickBot="1">
+    <row r="221" spans="1:18" ht="15.75" thickBot="1">
       <c r="A221" s="49" t="s">
         <v>232</v>
       </c>
@@ -13373,11 +13372,11 @@
       <c r="C221" s="2">
         <v>14.1</v>
       </c>
-      <c r="D221" s="91"/>
-      <c r="E221" s="92"/>
-      <c r="F221" s="92"/>
-      <c r="G221" s="92"/>
-      <c r="H221" s="92"/>
+      <c r="D221" s="96"/>
+      <c r="E221" s="97"/>
+      <c r="F221" s="97"/>
+      <c r="G221" s="97"/>
+      <c r="H221" s="97"/>
       <c r="I221" s="6" t="s">
         <v>472</v>
       </c>
@@ -13390,7 +13389,7 @@
       </c>
       <c r="M221" s="6"/>
       <c r="N221" s="6"/>
-      <c r="O221" s="90"/>
+      <c r="O221" s="98"/>
       <c r="P221" s="6"/>
       <c r="Q221" s="6" t="s">
         <v>18</v>
@@ -13399,7 +13398,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="222" spans="1:18" ht="15" thickBot="1">
+    <row r="222" spans="1:18" ht="15.75" thickBot="1">
       <c r="A222" s="49" t="s">
         <v>232</v>
       </c>
@@ -13409,11 +13408,11 @@
       <c r="C222" s="2">
         <v>14.1</v>
       </c>
-      <c r="D222" s="91"/>
-      <c r="E222" s="92"/>
-      <c r="F222" s="92"/>
-      <c r="G222" s="92"/>
-      <c r="H222" s="92"/>
+      <c r="D222" s="96"/>
+      <c r="E222" s="97"/>
+      <c r="F222" s="97"/>
+      <c r="G222" s="97"/>
+      <c r="H222" s="97"/>
       <c r="I222" s="6" t="s">
         <v>474</v>
       </c>
@@ -13426,7 +13425,7 @@
       </c>
       <c r="M222" s="6"/>
       <c r="N222" s="6"/>
-      <c r="O222" s="90"/>
+      <c r="O222" s="98"/>
       <c r="P222" s="6"/>
       <c r="Q222" s="6" t="s">
         <v>18</v>
@@ -13435,7 +13434,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="223" spans="1:18" ht="15" thickBot="1">
+    <row r="223" spans="1:18" ht="15.75" thickBot="1">
       <c r="A223" s="49" t="s">
         <v>232</v>
       </c>
@@ -13445,11 +13444,11 @@
       <c r="C223" s="2">
         <v>14.1</v>
       </c>
-      <c r="D223" s="91"/>
-      <c r="E223" s="92"/>
-      <c r="F223" s="92"/>
-      <c r="G223" s="92"/>
-      <c r="H223" s="92"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="97"/>
+      <c r="F223" s="97"/>
+      <c r="G223" s="97"/>
+      <c r="H223" s="97"/>
       <c r="I223" s="6" t="s">
         <v>476</v>
       </c>
@@ -13462,7 +13461,7 @@
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
-      <c r="O223" s="90"/>
+      <c r="O223" s="98"/>
       <c r="P223" s="6"/>
       <c r="Q223" s="6" t="s">
         <v>18</v>
@@ -13471,7 +13470,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="224" spans="1:18" ht="15" thickBot="1">
+    <row r="224" spans="1:18" ht="15.75" thickBot="1">
       <c r="A224" s="49" t="s">
         <v>232</v>
       </c>
@@ -13481,11 +13480,11 @@
       <c r="C224" s="2">
         <v>14.1</v>
       </c>
-      <c r="D224" s="91"/>
-      <c r="E224" s="92"/>
-      <c r="F224" s="92"/>
-      <c r="G224" s="92"/>
-      <c r="H224" s="92"/>
+      <c r="D224" s="96"/>
+      <c r="E224" s="97"/>
+      <c r="F224" s="97"/>
+      <c r="G224" s="97"/>
+      <c r="H224" s="97"/>
       <c r="I224" s="6" t="s">
         <v>478</v>
       </c>
@@ -13498,7 +13497,7 @@
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
-      <c r="O224" s="90"/>
+      <c r="O224" s="98"/>
       <c r="P224" s="6"/>
       <c r="Q224" s="6" t="s">
         <v>18</v>
@@ -13507,7 +13506,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="225" spans="1:18" ht="15" thickBot="1">
+    <row r="225" spans="1:18" ht="15.75" thickBot="1">
       <c r="A225" s="49" t="s">
         <v>232</v>
       </c>
@@ -13517,11 +13516,11 @@
       <c r="C225" s="2">
         <v>14.1</v>
       </c>
-      <c r="D225" s="91"/>
-      <c r="E225" s="92"/>
-      <c r="F225" s="92"/>
-      <c r="G225" s="92"/>
-      <c r="H225" s="92"/>
+      <c r="D225" s="96"/>
+      <c r="E225" s="97"/>
+      <c r="F225" s="97"/>
+      <c r="G225" s="97"/>
+      <c r="H225" s="97"/>
       <c r="I225" s="6" t="s">
         <v>480</v>
       </c>
@@ -13534,7 +13533,7 @@
       </c>
       <c r="M225" s="6"/>
       <c r="N225" s="6"/>
-      <c r="O225" s="90"/>
+      <c r="O225" s="98"/>
       <c r="P225" s="6"/>
       <c r="Q225" s="6" t="s">
         <v>18</v>
@@ -13543,7 +13542,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="226" spans="1:18" ht="15" thickBot="1">
+    <row r="226" spans="1:18" ht="15.75" thickBot="1">
       <c r="A226" s="49" t="s">
         <v>232</v>
       </c>
@@ -13553,11 +13552,11 @@
       <c r="C226" s="2">
         <v>14.1</v>
       </c>
-      <c r="D226" s="91"/>
-      <c r="E226" s="92"/>
-      <c r="F226" s="92"/>
-      <c r="G226" s="92"/>
-      <c r="H226" s="92"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="97"/>
+      <c r="F226" s="97"/>
+      <c r="G226" s="97"/>
+      <c r="H226" s="97"/>
       <c r="I226" s="6" t="s">
         <v>482</v>
       </c>
@@ -13570,7 +13569,7 @@
       </c>
       <c r="M226" s="6"/>
       <c r="N226" s="6"/>
-      <c r="O226" s="90"/>
+      <c r="O226" s="98"/>
       <c r="P226" s="6"/>
       <c r="Q226" s="6" t="s">
         <v>18</v>
@@ -13579,7 +13578,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="227" spans="1:18" ht="15" hidden="1" thickBot="1">
+    <row r="227" spans="1:18" ht="15.75" thickBot="1">
       <c r="A227" s="49" t="s">
         <v>232</v>
       </c>
@@ -13609,7 +13608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="228" spans="1:18" ht="15" hidden="1" thickBot="1">
+    <row r="228" spans="1:18" ht="15.75" thickBot="1">
       <c r="A228" s="49" t="s">
         <v>232</v>
       </c>
@@ -13639,7 +13638,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="229" spans="1:18" ht="15" hidden="1" thickBot="1">
+    <row r="229" spans="1:18" ht="15.75" thickBot="1">
       <c r="A229" s="49" t="s">
         <v>232</v>
       </c>
@@ -13669,7 +13668,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:18" ht="15" hidden="1" thickBot="1">
+    <row r="230" spans="1:18" ht="15.75" thickBot="1">
       <c r="A230" s="49" t="s">
         <v>232</v>
       </c>
@@ -13699,7 +13698,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="231" spans="1:18" hidden="1">
+    <row r="231" spans="1:18">
       <c r="A231" s="78" t="s">
         <v>490</v>
       </c>
@@ -13738,7 +13737,7 @@
         <v>706</v>
       </c>
       <c r="N231" s="16"/>
-      <c r="O231" s="95" t="s">
+      <c r="O231" s="100" t="s">
         <v>493</v>
       </c>
       <c r="P231" s="6"/>
@@ -13746,7 +13745,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="232" spans="1:18" hidden="1">
+    <row r="232" spans="1:18">
       <c r="A232" s="78" t="s">
         <v>490</v>
       </c>
@@ -13785,13 +13784,13 @@
         <v>706</v>
       </c>
       <c r="N232" s="16"/>
-      <c r="O232" s="96"/>
+      <c r="O232" s="101"/>
       <c r="P232" s="6"/>
       <c r="Q232" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="233" spans="1:18" hidden="1">
+    <row r="233" spans="1:18">
       <c r="A233" s="78" t="s">
         <v>490</v>
       </c>
@@ -13830,13 +13829,13 @@
         <v>706</v>
       </c>
       <c r="N233" s="16"/>
-      <c r="O233" s="96"/>
+      <c r="O233" s="101"/>
       <c r="P233" s="6"/>
       <c r="Q233" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="234" spans="1:18" hidden="1">
+    <row r="234" spans="1:18">
       <c r="A234" s="78" t="s">
         <v>490</v>
       </c>
@@ -13875,13 +13874,13 @@
         <v>706</v>
       </c>
       <c r="N234" s="16"/>
-      <c r="O234" s="96"/>
+      <c r="O234" s="101"/>
       <c r="P234" s="6"/>
       <c r="Q234" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="235" spans="1:18" hidden="1">
+    <row r="235" spans="1:18">
       <c r="A235" s="78" t="s">
         <v>490</v>
       </c>
@@ -13920,13 +13919,13 @@
         <v>706</v>
       </c>
       <c r="N235" s="16"/>
-      <c r="O235" s="96"/>
+      <c r="O235" s="101"/>
       <c r="P235" s="6"/>
       <c r="Q235" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="236" spans="1:18" hidden="1">
+    <row r="236" spans="1:18">
       <c r="A236" s="78" t="s">
         <v>490</v>
       </c>
@@ -13965,13 +13964,13 @@
         <v>706</v>
       </c>
       <c r="N236" s="16"/>
-      <c r="O236" s="96"/>
+      <c r="O236" s="101"/>
       <c r="P236" s="6"/>
       <c r="Q236" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="237" spans="1:18" hidden="1">
+    <row r="237" spans="1:18">
       <c r="A237" s="78" t="s">
         <v>490</v>
       </c>
@@ -14010,13 +14009,13 @@
         <v>706</v>
       </c>
       <c r="N237" s="16"/>
-      <c r="O237" s="96"/>
+      <c r="O237" s="101"/>
       <c r="P237" s="6"/>
       <c r="Q237" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="238" spans="1:18" hidden="1">
+    <row r="238" spans="1:18">
       <c r="A238" s="78" t="s">
         <v>490</v>
       </c>
@@ -14055,13 +14054,13 @@
         <v>706</v>
       </c>
       <c r="N238" s="16"/>
-      <c r="O238" s="96"/>
+      <c r="O238" s="101"/>
       <c r="P238" s="6"/>
       <c r="Q238" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="239" spans="1:18" hidden="1">
+    <row r="239" spans="1:18">
       <c r="A239" s="78" t="s">
         <v>490</v>
       </c>
@@ -14100,13 +14099,13 @@
         <v>706</v>
       </c>
       <c r="N239" s="16"/>
-      <c r="O239" s="96"/>
+      <c r="O239" s="101"/>
       <c r="P239" s="6"/>
       <c r="Q239" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="240" spans="1:18" hidden="1">
+    <row r="240" spans="1:18">
       <c r="A240" s="78" t="s">
         <v>490</v>
       </c>
@@ -14145,13 +14144,13 @@
         <v>706</v>
       </c>
       <c r="N240" s="16"/>
-      <c r="O240" s="96"/>
+      <c r="O240" s="101"/>
       <c r="P240" s="6"/>
       <c r="Q240" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="241" spans="1:17" hidden="1">
+    <row r="241" spans="1:17">
       <c r="A241" s="78" t="s">
         <v>490</v>
       </c>
@@ -14190,13 +14189,13 @@
         <v>706</v>
       </c>
       <c r="N241" s="16"/>
-      <c r="O241" s="96"/>
+      <c r="O241" s="101"/>
       <c r="P241" s="6"/>
       <c r="Q241" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="242" spans="1:17" hidden="1">
+    <row r="242" spans="1:17">
       <c r="A242" s="78" t="s">
         <v>490</v>
       </c>
@@ -14235,13 +14234,13 @@
         <v>706</v>
       </c>
       <c r="N242" s="16"/>
-      <c r="O242" s="96"/>
+      <c r="O242" s="101"/>
       <c r="P242" s="6"/>
       <c r="Q242" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="243" spans="1:17" hidden="1">
+    <row r="243" spans="1:17">
       <c r="A243" s="78" t="s">
         <v>490</v>
       </c>
@@ -14280,13 +14279,13 @@
         <v>706</v>
       </c>
       <c r="N243" s="16"/>
-      <c r="O243" s="96"/>
+      <c r="O243" s="101"/>
       <c r="P243" s="6"/>
       <c r="Q243" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="244" spans="1:17" hidden="1">
+    <row r="244" spans="1:17">
       <c r="A244" s="78" t="s">
         <v>490</v>
       </c>
@@ -14325,13 +14324,13 @@
         <v>706</v>
       </c>
       <c r="N244" s="16"/>
-      <c r="O244" s="96"/>
+      <c r="O244" s="101"/>
       <c r="P244" s="6"/>
       <c r="Q244" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="245" spans="1:17" hidden="1">
+    <row r="245" spans="1:17">
       <c r="A245" s="78" t="s">
         <v>490</v>
       </c>
@@ -14370,13 +14369,13 @@
         <v>706</v>
       </c>
       <c r="N245" s="16"/>
-      <c r="O245" s="96"/>
+      <c r="O245" s="101"/>
       <c r="P245" s="6"/>
       <c r="Q245" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="246" spans="1:17" hidden="1">
+    <row r="246" spans="1:17">
       <c r="A246" s="78" t="s">
         <v>490</v>
       </c>
@@ -14415,13 +14414,13 @@
         <v>706</v>
       </c>
       <c r="N246" s="16"/>
-      <c r="O246" s="96"/>
+      <c r="O246" s="101"/>
       <c r="P246" s="6"/>
       <c r="Q246" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="247" spans="1:17" hidden="1">
+    <row r="247" spans="1:17">
       <c r="A247" s="78" t="s">
         <v>490</v>
       </c>
@@ -14458,13 +14457,13 @@
         <v>706</v>
       </c>
       <c r="N247" s="16"/>
-      <c r="O247" s="96"/>
+      <c r="O247" s="101"/>
       <c r="P247" s="6"/>
       <c r="Q247" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="248" spans="1:17" hidden="1">
+    <row r="248" spans="1:17">
       <c r="A248" s="78" t="s">
         <v>490</v>
       </c>
@@ -14501,13 +14500,13 @@
         <v>706</v>
       </c>
       <c r="N248" s="16"/>
-      <c r="O248" s="96"/>
+      <c r="O248" s="101"/>
       <c r="P248" s="6"/>
       <c r="Q248" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="249" spans="1:17" hidden="1">
+    <row r="249" spans="1:17">
       <c r="A249" s="78" t="s">
         <v>490</v>
       </c>
@@ -14544,13 +14543,13 @@
         <v>706</v>
       </c>
       <c r="N249" s="16"/>
-      <c r="O249" s="96"/>
+      <c r="O249" s="101"/>
       <c r="P249" s="6"/>
       <c r="Q249" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="250" spans="1:17" hidden="1">
+    <row r="250" spans="1:17">
       <c r="A250" s="78" t="s">
         <v>490</v>
       </c>
@@ -14587,13 +14586,13 @@
         <v>706</v>
       </c>
       <c r="N250" s="16"/>
-      <c r="O250" s="96"/>
+      <c r="O250" s="101"/>
       <c r="P250" s="6"/>
       <c r="Q250" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="251" spans="1:17" hidden="1">
+    <row r="251" spans="1:17">
       <c r="A251" s="78" t="s">
         <v>490</v>
       </c>
@@ -14630,13 +14629,13 @@
         <v>706</v>
       </c>
       <c r="N251" s="16"/>
-      <c r="O251" s="96"/>
+      <c r="O251" s="101"/>
       <c r="P251" s="6"/>
       <c r="Q251" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="252" spans="1:17" hidden="1">
+    <row r="252" spans="1:17">
       <c r="A252" s="78" t="s">
         <v>490</v>
       </c>
@@ -14673,13 +14672,13 @@
         <v>706</v>
       </c>
       <c r="N252" s="16"/>
-      <c r="O252" s="96"/>
+      <c r="O252" s="101"/>
       <c r="P252" s="6"/>
       <c r="Q252" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="253" spans="1:17" hidden="1">
+    <row r="253" spans="1:17">
       <c r="A253" s="78" t="s">
         <v>490</v>
       </c>
@@ -14716,13 +14715,13 @@
         <v>706</v>
       </c>
       <c r="N253" s="16"/>
-      <c r="O253" s="96"/>
+      <c r="O253" s="101"/>
       <c r="P253" s="6"/>
       <c r="Q253" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="254" spans="1:17" hidden="1">
+    <row r="254" spans="1:17">
       <c r="A254" s="78" t="s">
         <v>490</v>
       </c>
@@ -14759,13 +14758,13 @@
         <v>706</v>
       </c>
       <c r="N254" s="16"/>
-      <c r="O254" s="96"/>
+      <c r="O254" s="101"/>
       <c r="P254" s="6"/>
       <c r="Q254" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="255" spans="1:17" hidden="1">
+    <row r="255" spans="1:17">
       <c r="A255" s="78" t="s">
         <v>490</v>
       </c>
@@ -14802,13 +14801,13 @@
         <v>706</v>
       </c>
       <c r="N255" s="16"/>
-      <c r="O255" s="96"/>
+      <c r="O255" s="101"/>
       <c r="P255" s="6"/>
       <c r="Q255" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="256" spans="1:17" hidden="1">
+    <row r="256" spans="1:17">
       <c r="A256" s="78" t="s">
         <v>490</v>
       </c>
@@ -14845,13 +14844,13 @@
         <v>706</v>
       </c>
       <c r="N256" s="16"/>
-      <c r="O256" s="96"/>
+      <c r="O256" s="101"/>
       <c r="P256" s="6"/>
       <c r="Q256" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="257" spans="1:17" hidden="1">
+    <row r="257" spans="1:17">
       <c r="A257" s="78" t="s">
         <v>490</v>
       </c>
@@ -14888,13 +14887,13 @@
         <v>706</v>
       </c>
       <c r="N257" s="16"/>
-      <c r="O257" s="96"/>
+      <c r="O257" s="101"/>
       <c r="P257" s="6"/>
       <c r="Q257" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="258" spans="1:17" hidden="1">
+    <row r="258" spans="1:17">
       <c r="A258" s="78" t="s">
         <v>490</v>
       </c>
@@ -14931,13 +14930,13 @@
         <v>706</v>
       </c>
       <c r="N258" s="16"/>
-      <c r="O258" s="96"/>
+      <c r="O258" s="101"/>
       <c r="P258" s="6"/>
       <c r="Q258" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="259" spans="1:17" hidden="1">
+    <row r="259" spans="1:17" ht="15.75" thickBot="1">
       <c r="A259" s="78" t="s">
         <v>490</v>
       </c>
@@ -14974,13 +14973,13 @@
         <v>706</v>
       </c>
       <c r="N259" s="16"/>
-      <c r="O259" s="97"/>
+      <c r="O259" s="102"/>
       <c r="P259" s="6"/>
       <c r="Q259" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="260" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="260" spans="1:17" ht="15.75" thickBot="1">
       <c r="A260" s="78" t="s">
         <v>490</v>
       </c>
@@ -15031,7 +15030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="261" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="261" spans="1:17" ht="15.75" thickBot="1">
       <c r="A261" s="78" t="s">
         <v>490</v>
       </c>
@@ -15082,7 +15081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="262" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="262" spans="1:17" ht="15.75" thickBot="1">
       <c r="A262" s="78" t="s">
         <v>490</v>
       </c>
@@ -15133,7 +15132,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="263" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="263" spans="1:17" ht="15.75" thickBot="1">
       <c r="A263" s="78" t="s">
         <v>490</v>
       </c>
@@ -15184,7 +15183,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="264" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="264" spans="1:17" ht="15.75" thickBot="1">
       <c r="A264" s="78" t="s">
         <v>490</v>
       </c>
@@ -15235,7 +15234,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="265" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="265" spans="1:17" ht="15.75" thickBot="1">
       <c r="A265" s="78" t="s">
         <v>490</v>
       </c>
@@ -15284,7 +15283,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="266" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="266" spans="1:17" ht="15.75" thickBot="1">
       <c r="A266" s="78" t="s">
         <v>490</v>
       </c>
@@ -15333,7 +15332,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="267" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="267" spans="1:17" ht="15.75" thickBot="1">
       <c r="A267" s="78" t="s">
         <v>490</v>
       </c>
@@ -15382,7 +15381,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="268" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="268" spans="1:17" ht="15.75" thickBot="1">
       <c r="A268" s="78" t="s">
         <v>490</v>
       </c>
@@ -15431,7 +15430,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="269" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="269" spans="1:17" ht="15.75" thickBot="1">
       <c r="A269" s="78" t="s">
         <v>490</v>
       </c>
@@ -15480,7 +15479,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="270" spans="1:17" hidden="1">
+    <row r="270" spans="1:17">
       <c r="A270" s="78" t="s">
         <v>490</v>
       </c>
@@ -15511,7 +15510,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="271" spans="1:17" hidden="1">
+    <row r="271" spans="1:17">
       <c r="A271" s="78" t="s">
         <v>490</v>
       </c>
@@ -15540,13 +15539,13 @@
       </c>
       <c r="M271" s="16"/>
       <c r="N271" s="16"/>
-      <c r="O271" s="98"/>
+      <c r="O271" s="91"/>
       <c r="P271" s="6"/>
       <c r="Q271" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="272" spans="1:17" hidden="1">
+    <row r="272" spans="1:17">
       <c r="A272" s="78" t="s">
         <v>490</v>
       </c>
@@ -15575,13 +15574,13 @@
       </c>
       <c r="M272" s="16"/>
       <c r="N272" s="16"/>
-      <c r="O272" s="98"/>
+      <c r="O272" s="91"/>
       <c r="P272" s="6"/>
       <c r="Q272" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="273" spans="1:17" hidden="1">
+    <row r="273" spans="1:17">
       <c r="A273" s="78" t="s">
         <v>490</v>
       </c>
@@ -15610,13 +15609,13 @@
       </c>
       <c r="M273" s="16"/>
       <c r="N273" s="16"/>
-      <c r="O273" s="98"/>
+      <c r="O273" s="91"/>
       <c r="P273" s="6"/>
       <c r="Q273" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="274" spans="1:17" hidden="1">
+    <row r="274" spans="1:17" ht="15.75" thickBot="1">
       <c r="A274" s="78" t="s">
         <v>490</v>
       </c>
@@ -15645,13 +15644,13 @@
       </c>
       <c r="M274" s="16"/>
       <c r="N274" s="16"/>
-      <c r="O274" s="98"/>
+      <c r="O274" s="91"/>
       <c r="P274" s="6"/>
       <c r="Q274" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="275" spans="1:17" ht="15.75" thickBot="1">
       <c r="A275" s="78" t="s">
         <v>490</v>
       </c>
@@ -15680,13 +15679,13 @@
       </c>
       <c r="M275" s="16"/>
       <c r="N275" s="16"/>
-      <c r="O275" s="98"/>
+      <c r="O275" s="91"/>
       <c r="P275" s="6"/>
       <c r="Q275" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="276" spans="1:17" ht="15.75" thickBot="1">
       <c r="A276" s="78" t="s">
         <v>490</v>
       </c>
@@ -15715,13 +15714,13 @@
       </c>
       <c r="M276" s="16"/>
       <c r="N276" s="16"/>
-      <c r="O276" s="98"/>
+      <c r="O276" s="91"/>
       <c r="P276" s="6"/>
       <c r="Q276" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="277" spans="1:17" ht="15.75" thickBot="1">
       <c r="A277" s="78" t="s">
         <v>490</v>
       </c>
@@ -15750,13 +15749,13 @@
       </c>
       <c r="M277" s="16"/>
       <c r="N277" s="16"/>
-      <c r="O277" s="98"/>
+      <c r="O277" s="91"/>
       <c r="P277" s="6"/>
       <c r="Q277" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="278" spans="1:17" ht="15.75" thickBot="1">
       <c r="A278" s="78" t="s">
         <v>490</v>
       </c>
@@ -15785,13 +15784,13 @@
       </c>
       <c r="M278" s="16"/>
       <c r="N278" s="16"/>
-      <c r="O278" s="98"/>
+      <c r="O278" s="91"/>
       <c r="P278" s="6"/>
       <c r="Q278" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="279" spans="1:17" ht="15.75" thickBot="1">
       <c r="A279" s="78" t="s">
         <v>490</v>
       </c>
@@ -15820,13 +15819,13 @@
       </c>
       <c r="M279" s="16"/>
       <c r="N279" s="16"/>
-      <c r="O279" s="98"/>
+      <c r="O279" s="91"/>
       <c r="P279" s="6"/>
       <c r="Q279" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="280" spans="1:17" ht="15.75" thickBot="1">
       <c r="A280" s="78" t="s">
         <v>490</v>
       </c>
@@ -15855,13 +15854,13 @@
       </c>
       <c r="M280" s="16"/>
       <c r="N280" s="16"/>
-      <c r="O280" s="98"/>
+      <c r="O280" s="91"/>
       <c r="P280" s="6"/>
       <c r="Q280" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="281" spans="1:17" ht="15.75" thickBot="1">
       <c r="A281" s="78" t="s">
         <v>490</v>
       </c>
@@ -15890,13 +15889,13 @@
       </c>
       <c r="M281" s="16"/>
       <c r="N281" s="16"/>
-      <c r="O281" s="98"/>
+      <c r="O281" s="91"/>
       <c r="P281" s="6"/>
       <c r="Q281" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="282" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="282" spans="1:17" ht="15.75" thickBot="1">
       <c r="A282" s="78" t="s">
         <v>490</v>
       </c>
@@ -15925,13 +15924,13 @@
       </c>
       <c r="M282" s="16"/>
       <c r="N282" s="16"/>
-      <c r="O282" s="98"/>
+      <c r="O282" s="91"/>
       <c r="P282" s="6"/>
       <c r="Q282" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="283" spans="1:17" ht="15.75" thickBot="1">
       <c r="A283" s="78" t="s">
         <v>490</v>
       </c>
@@ -15960,13 +15959,13 @@
       </c>
       <c r="M283" s="16"/>
       <c r="N283" s="16"/>
-      <c r="O283" s="98"/>
+      <c r="O283" s="91"/>
       <c r="P283" s="6"/>
       <c r="Q283" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="284" spans="1:17" ht="15.75" thickBot="1">
       <c r="A284" s="78" t="s">
         <v>490</v>
       </c>
@@ -15995,13 +15994,13 @@
       </c>
       <c r="M284" s="16"/>
       <c r="N284" s="16"/>
-      <c r="O284" s="98"/>
+      <c r="O284" s="91"/>
       <c r="P284" s="6"/>
       <c r="Q284" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="285" spans="1:17" ht="15.75" thickBot="1">
       <c r="A285" s="78" t="s">
         <v>490</v>
       </c>
@@ -16030,13 +16029,13 @@
       </c>
       <c r="M285" s="16"/>
       <c r="N285" s="16"/>
-      <c r="O285" s="98"/>
+      <c r="O285" s="91"/>
       <c r="P285" s="6"/>
       <c r="Q285" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="286" spans="1:17" ht="15.75" thickBot="1">
       <c r="A286" s="78" t="s">
         <v>490</v>
       </c>
@@ -16065,13 +16064,13 @@
       </c>
       <c r="M286" s="16"/>
       <c r="N286" s="16"/>
-      <c r="O286" s="98"/>
+      <c r="O286" s="91"/>
       <c r="P286" s="6"/>
       <c r="Q286" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="287" spans="1:17" ht="15.75" thickBot="1">
       <c r="A287" s="78" t="s">
         <v>490</v>
       </c>
@@ -16100,13 +16099,13 @@
       </c>
       <c r="M287" s="16"/>
       <c r="N287" s="16"/>
-      <c r="O287" s="98"/>
+      <c r="O287" s="91"/>
       <c r="P287" s="6"/>
       <c r="Q287" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="288" spans="1:17" ht="15.75" thickBot="1">
       <c r="A288" s="78" t="s">
         <v>490</v>
       </c>
@@ -16135,13 +16134,13 @@
       </c>
       <c r="M288" s="16"/>
       <c r="N288" s="16"/>
-      <c r="O288" s="98"/>
+      <c r="O288" s="91"/>
       <c r="P288" s="6"/>
       <c r="Q288" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="289" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="289" spans="1:17" ht="15.75" thickBot="1">
       <c r="A289" s="78" t="s">
         <v>490</v>
       </c>
@@ -16170,13 +16169,13 @@
       </c>
       <c r="M289" s="16"/>
       <c r="N289" s="16"/>
-      <c r="O289" s="98"/>
+      <c r="O289" s="91"/>
       <c r="P289" s="6"/>
       <c r="Q289" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="290" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="290" spans="1:17" ht="30.75" thickBot="1">
       <c r="A290" s="78" t="s">
         <v>490</v>
       </c>
@@ -16205,13 +16204,13 @@
       </c>
       <c r="M290" s="16"/>
       <c r="N290" s="16"/>
-      <c r="O290" s="99"/>
+      <c r="O290" s="92"/>
       <c r="P290" s="6"/>
       <c r="Q290" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="291" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="291" spans="1:17" ht="15.75" thickBot="1">
       <c r="A291" s="78" t="s">
         <v>490</v>
       </c>
@@ -16262,7 +16261,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="292" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="292" spans="1:17" ht="15.75" thickBot="1">
       <c r="A292" s="78" t="s">
         <v>490</v>
       </c>
@@ -16313,7 +16312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="293" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="293" spans="1:17" ht="15.75" thickBot="1">
       <c r="A293" s="78" t="s">
         <v>490</v>
       </c>
@@ -16364,7 +16363,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="294" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="294" spans="1:17" ht="15.75" thickBot="1">
       <c r="A294" s="78" t="s">
         <v>490</v>
       </c>
@@ -16415,7 +16414,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="295" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="295" spans="1:17" ht="15.75" thickBot="1">
       <c r="A295" s="78" t="s">
         <v>490</v>
       </c>
@@ -16466,7 +16465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="296" spans="1:17" hidden="1">
+    <row r="296" spans="1:17">
       <c r="A296" s="78" t="s">
         <v>490</v>
       </c>
@@ -16507,7 +16506,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="297" spans="1:17" hidden="1">
+    <row r="297" spans="1:17">
       <c r="A297" s="78" t="s">
         <v>490</v>
       </c>
@@ -16544,7 +16543,7 @@
       </c>
       <c r="M297" s="16"/>
       <c r="N297" s="16"/>
-      <c r="O297" s="100" t="s">
+      <c r="O297" s="93" t="s">
         <v>657</v>
       </c>
       <c r="P297" s="6"/>
@@ -16552,7 +16551,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="298" spans="1:17" hidden="1">
+    <row r="298" spans="1:17">
       <c r="A298" s="78" t="s">
         <v>490</v>
       </c>
@@ -16589,13 +16588,13 @@
       </c>
       <c r="M298" s="16"/>
       <c r="N298" s="16"/>
-      <c r="O298" s="101"/>
+      <c r="O298" s="94"/>
       <c r="P298" s="6"/>
       <c r="Q298" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="299" spans="1:17" hidden="1">
+    <row r="299" spans="1:17" ht="15.75" thickBot="1">
       <c r="A299" s="78" t="s">
         <v>490</v>
       </c>
@@ -16632,13 +16631,13 @@
       </c>
       <c r="M299" s="16"/>
       <c r="N299" s="16"/>
-      <c r="O299" s="102"/>
+      <c r="O299" s="95"/>
       <c r="P299" s="6"/>
       <c r="Q299" s="44" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="300" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="300" spans="1:17" ht="15.75" thickBot="1">
       <c r="A300" s="78" t="s">
         <v>490</v>
       </c>
@@ -16681,7 +16680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="301" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="301" spans="1:17" ht="15.75" thickBot="1">
       <c r="A301" s="78" t="s">
         <v>490</v>
       </c>
@@ -16716,7 +16715,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="302" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="302" spans="1:17" ht="15.75" thickBot="1">
       <c r="A302" s="78" t="s">
         <v>490</v>
       </c>
@@ -16751,7 +16750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="303" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="303" spans="1:17" ht="15.75" thickBot="1">
       <c r="A303" s="78" t="s">
         <v>490</v>
       </c>
@@ -16786,7 +16785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="304" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="304" spans="1:17" ht="15.75" thickBot="1">
       <c r="A304" s="78" t="s">
         <v>490</v>
       </c>
@@ -16821,7 +16820,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="305" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="305" spans="1:17" ht="15.75" thickBot="1">
       <c r="A305" s="78" t="s">
         <v>490</v>
       </c>
@@ -16856,7 +16855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="306" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="306" spans="1:17" ht="15.75" thickBot="1">
       <c r="A306" s="78" t="s">
         <v>490</v>
       </c>
@@ -16891,7 +16890,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="307" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="307" spans="1:17" ht="15.75" thickBot="1">
       <c r="A307" s="78" t="s">
         <v>490</v>
       </c>
@@ -16926,7 +16925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="308" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="308" spans="1:17" ht="15.75" thickBot="1">
       <c r="A308" s="78" t="s">
         <v>490</v>
       </c>
@@ -16961,7 +16960,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="309" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="309" spans="1:17" ht="15.75" thickBot="1">
       <c r="A309" s="78" t="s">
         <v>490</v>
       </c>
@@ -16996,7 +16995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="310" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="310" spans="1:17" ht="15.75" thickBot="1">
       <c r="A310" s="78" t="s">
         <v>490</v>
       </c>
@@ -17031,7 +17030,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="311" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="311" spans="1:17" ht="15.75" thickBot="1">
       <c r="A311" s="78" t="s">
         <v>490</v>
       </c>
@@ -17066,7 +17065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="312" spans="1:17" ht="15" hidden="1" thickBot="1">
+    <row r="312" spans="1:17" ht="15.75" thickBot="1">
       <c r="A312" s="78" t="s">
         <v>490</v>
       </c>
@@ -17097,14 +17096,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:S312" xr:uid="{3A371217-2A1F-4AE4-BE37-3F48849AA137}">
-    <filterColumn colId="17">
-      <filters>
-        <filter val="No script"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="36">
+  <autoFilter ref="A1:S312" xr:uid="{3A371217-2A1F-4AE4-BE37-3F48849AA137}"/>
+  <mergeCells count="35">
+    <mergeCell ref="O52"/>
+    <mergeCell ref="O53"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="H15:H16"/>
+    <mergeCell ref="H93:H100"/>
+    <mergeCell ref="O75:O87"/>
+    <mergeCell ref="O54"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C65"/>
+    <mergeCell ref="O93:O100"/>
+    <mergeCell ref="C93:C100"/>
+    <mergeCell ref="D93:D100"/>
+    <mergeCell ref="E93:E100"/>
+    <mergeCell ref="F93:F100"/>
+    <mergeCell ref="G93:G100"/>
+    <mergeCell ref="O101"/>
+    <mergeCell ref="C102:C104"/>
+    <mergeCell ref="C105:C109"/>
+    <mergeCell ref="D105:D109"/>
+    <mergeCell ref="O111"/>
+    <mergeCell ref="O125"/>
+    <mergeCell ref="O126"/>
+    <mergeCell ref="O127"/>
+    <mergeCell ref="O231:O259"/>
+    <mergeCell ref="O128:O140"/>
+    <mergeCell ref="O141:O143"/>
+    <mergeCell ref="O144:O226"/>
     <mergeCell ref="O271:O290"/>
     <mergeCell ref="O297:O299"/>
     <mergeCell ref="D144:D226"/>
@@ -17112,35 +17133,6 @@
     <mergeCell ref="F144:F226"/>
     <mergeCell ref="G144:G226"/>
     <mergeCell ref="H144:H226"/>
-    <mergeCell ref="O125"/>
-    <mergeCell ref="O126"/>
-    <mergeCell ref="O127"/>
-    <mergeCell ref="O231:O259"/>
-    <mergeCell ref="O128:O140"/>
-    <mergeCell ref="O141:O143"/>
-    <mergeCell ref="O144:O226"/>
-    <mergeCell ref="O101"/>
-    <mergeCell ref="C102:C104"/>
-    <mergeCell ref="C105:C109"/>
-    <mergeCell ref="D105:D109"/>
-    <mergeCell ref="O111"/>
-    <mergeCell ref="O101:O102"/>
-    <mergeCell ref="C93:C100"/>
-    <mergeCell ref="D93:D100"/>
-    <mergeCell ref="E93:E100"/>
-    <mergeCell ref="F93:F100"/>
-    <mergeCell ref="G93:G100"/>
-    <mergeCell ref="H93:H100"/>
-    <mergeCell ref="O75:O87"/>
-    <mergeCell ref="O54"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C65"/>
-    <mergeCell ref="O93:O100"/>
-    <mergeCell ref="O52"/>
-    <mergeCell ref="O53"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
   </mergeCells>
   <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
